--- a/survey_data_&_analysis.xlsx
+++ b/survey_data_&_analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\DATA\Statistics\statproject_surveydata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7BA02A-FF4C-4820-99A0-8B8062EC9E1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05580D9A-01E2-46A0-9702-8D2A3314D738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,21 +24,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Data - With Notes'!$A$1:$BG$1</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'Data - With Notes'!$S$2:$S$201</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Data - With Notes'!$AC$2:$AC$201</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Data - With Notes'!$AC$2:$AC$201</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Data - With Notes'!$AH$2:$AH$201</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Data - With Notes'!$S$2:$S$201</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Data - With Notes'!$S$2:$S$201</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Data - With Notes'!$S$2:$S$201</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Data - With Notes'!$S$2:$S$201</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Data - With Notes'!$S$2:$S$201</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Data - With Notes'!$AM$2:$AM$201</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Data - With Notes'!$X$2:$X$201</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Data - With Notes'!$AC$2:$AC$201</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Data - With Notes'!$X$2:$X$201</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Data - With Notes'!$X$2:$X$201</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Data - With Notes'!$AH$2:$AH$201</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Data - With Notes'!$AR$2:$AR$201</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Data - With Notes'!$AM$2:$AM$201</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'Data - With Notes'!$X$2:$X$201</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Data - With Notes'!$AM$2:$AM$201</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Data - With Notes'!$AR$2:$AR$201</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Data - With Notes'!$AM$2:$AM$201</definedName>
     <definedName name="cleaner_all">'Data - With Notes'!$AR$2:$AR$201</definedName>
     <definedName name="cleaner_g1">'Data - With Notes'!$AN$2:$AN$201</definedName>
     <definedName name="cleaner_g2">'Data - With Notes'!$AO$2:$AO$201</definedName>
@@ -106,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12459" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12459" uniqueCount="284">
   <si>
     <t>Number</t>
   </si>
@@ -630,9 +620,6 @@
     <t>2)</t>
   </si>
   <si>
-    <t xml:space="preserve">If Z-Score test provides % values from Median to tail, the product data with ~50% Z-Test is normall distributed. </t>
-  </si>
-  <si>
     <t xml:space="preserve">From mean v. median calculation: </t>
   </si>
   <si>
@@ -1121,6 +1108,12 @@
   <si>
     <t>There is no significant price difference between Marital Status</t>
   </si>
+  <si>
+    <t xml:space="preserve">If Z-Score test provides % values from Median to tail, the product data with ~50% Z-Test is normally distributed. </t>
+  </si>
+  <si>
+    <t>For each product, which group do you most likely fall into, and which group (high, mid-high, low-mid, low) is it for that product? (optional, this not intended to be a soffisticated question)</t>
+  </si>
 </sst>
 </file>
 
@@ -1129,9 +1122,9 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1239,12 +1232,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -1588,9 +1575,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1602,8 +1586,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1621,7 +1605,7 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1643,22 +1627,22 @@
     <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1674,10 +1658,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -1686,9 +1670,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1703,12 +1684,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1718,11 +1693,62 @@
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1730,55 +1756,16 @@
     <xf numFmtId="44" fontId="9" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="44" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="44" fontId="9" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3156,7 +3143,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3233,7 +3220,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3315,7 +3302,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3397,7 +3384,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3479,7 +3466,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3561,7 +3548,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3643,7 +3630,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8656,8 +8643,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="342900" y="8545830"/>
-              <a:ext cx="5935980" cy="2541270"/>
+              <a:off x="342900" y="10900410"/>
+              <a:ext cx="8260080" cy="2541270"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8734,7 +8721,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6431280" y="8530590"/>
+              <a:off x="8755380" y="10885170"/>
               <a:ext cx="5913120" cy="2586990"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8812,8 +8799,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="342900" y="11209020"/>
-              <a:ext cx="5935980" cy="2430780"/>
+              <a:off x="342900" y="13563600"/>
+              <a:ext cx="8260080" cy="2430780"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8890,7 +8877,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6416040" y="11193780"/>
+              <a:off x="8740140" y="13548360"/>
               <a:ext cx="5935980" cy="2430780"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8968,8 +8955,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="327660" y="13792200"/>
-              <a:ext cx="5935980" cy="2430780"/>
+              <a:off x="327660" y="16146780"/>
+              <a:ext cx="8260080" cy="2430780"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9046,7 +9033,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6438900" y="13799820"/>
+              <a:off x="8763000" y="16154400"/>
               <a:ext cx="5935980" cy="2430780"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9215,8 +9202,8 @@
       <xdr:row>153</xdr:row>
       <xdr:rowOff>76414</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="43" name="Ink 42">
@@ -9235,7 +9222,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="43" name="Ink 42">
@@ -9315,7 +9302,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="1638300" y="32381190"/>
-              <a:ext cx="6172200" cy="2586990"/>
+              <a:ext cx="6804660" cy="2586990"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9358,8 +9345,8 @@
       <xdr:row>205</xdr:row>
       <xdr:rowOff>130202</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="94" name="Ink 93">
@@ -9378,7 +9365,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="94" name="Ink 93">
@@ -9423,8 +9410,8 @@
       <xdr:row>218</xdr:row>
       <xdr:rowOff>8860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="98" name="Ink 97">
@@ -9443,7 +9430,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="98" name="Ink 97">
@@ -9488,8 +9475,8 @@
       <xdr:row>235</xdr:row>
       <xdr:rowOff>88604</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="99" name="Ink 98">
@@ -9508,7 +9495,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="99" name="Ink 98">
@@ -9553,8 +9540,8 @@
       <xdr:row>251</xdr:row>
       <xdr:rowOff>63008</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="100" name="Ink 99">
@@ -9573,7 +9560,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="100" name="Ink 99">
@@ -9763,14 +9750,14 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9771.543">4524 9094,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,28-4,27-6,29-8,28-8,20-10,14-9,-19 4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12268.567">7465 4383,'0'0,"0"0,0 0,0 0,0 0,0 0,0 4,-5 171,17 161,-2-120,-9-181,57 997,-54-977,-2-25,1 0,2 1,0-1,4 7,2-14,-5-14</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12853.371">7003 7480,'0'0,"0"0,13 8,-8-4,41 32,-1 2,-3 2,31 35,109 145,-81-94,-51-65,-41-51</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13199.875">7680 7486,'0'0,"0"2,0-1,-1 0,1 1,0-1,-1 1,0-1,1 0,-1 0,0 1,0-1,1 0,-2 0,-4 9,-62 125,-95 177,123-245,-2-2,-4-1,-26 26,68-85,0-1,0 1,1-1,-2 0,1-1,0 1,-1-1,5-2,-1-1,0 0,1 1,-1-1,0 0,1 0,-1 1,1-1,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1-1,1 1,-1 0,0 0,1-1,-1 1,0 0,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 1,0-1,-1 1,1-1,-1 0,1 1,0-1,0 0,-1 1,1-1,0 1,0-1,0 0,0 0,0 1,-6-23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13199.874">7680 7486,'0'0,"0"2,0-1,-1 0,1 1,0-1,-1 1,0-1,1 0,-1 0,0 1,0-1,1 0,-2 0,-4 9,-62 125,-95 177,123-245,-2-2,-4-1,-26 26,68-85,0-1,0 1,1-1,-2 0,1-1,0 1,-1-1,5-2,-1-1,0 0,1 1,-1-1,0 0,1 0,-1 1,1-1,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1-1,1 1,-1 0,0 0,1-1,-1 1,0 0,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 1,0-1,-1 1,1-1,-1 0,1 1,0-1,0 0,-1 1,1-1,0 1,0-1,0 0,0 0,0 1,-6-23</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13566.322">6554 7222,'20'-7,"199"-58,3 11,81-4,-267 51,28-5,0 2,1 3,41 2,-69 8,-7 3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16417.866">7018 8988,'99'-69,"4"3,88-39,-183 101,4-2,1 1,-1 0,9-2,-19 6,-1 0,1 1,0-1,0 1,0 0,-1-1,1 1,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,0 1,-1 0,1-1,0 1,0 0,-1 0,1-1,-1 1,1 1,-1-1,1 0,-1 0,0 0,1 1,-1 0,-1 0,1-1,-1 1,1 0,-1 0,1-1,-1 1,0 0,0 0,0 0,0 0,0-1,0 1,-1 0,1 0,0 0,-1-1,0 1,1 0,-18 34,17-33,-16 24,0-2,-2 0,0-1,-2-1,-9 7,-118 102,133-119,-23 20,-2-2,-1-1,-36 19,66-47,23-8,9-2,143-43,-126 41,0 2,1 1,17 1,-44 5,-1 1,0 1,1 0,-1 0,0 1,0 0,0 1,0 1,0 0,0 0,-1 1,9 5,-14-6,0-1,0 1,0-1,0 1,-1 1,0-1,0 1,0 0,0 0,-1 0,0 0,0 0,0 1,-1-1,0 1,0 0,0 0,-1 0,1 0,-1 0,-1 0,1 0,-1 0,0 0,-1 1,0 3,-1 1,-1 0,0 0,0-1,-1 0,-1 0,1 0,-1 0,-1-1,0 1,0-2,-6 6,-4 6,-2-1,0 0,-2-2,-15 12,21-19,0-1,-1 0,0 0,0-1,-1-1,0-1,0-1,-13 4,1-5</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16831.591">7915 8577,'0'0,"0"0,0 0,0 3,24 179,-7 23,-12-145,-4-49,0 0,0 0,1-1,1 1,-1-1,5 10,-1-8</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17168.108">8598 9367,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18172.137">9148 8658,'0'0,"0"0,0 0,-1-14,-1 1,0 0,-1 0,-1 0,-3-9,0-1,-5-20,-3 1,-1 1,-2 0,-1 1,-2 1,-15-18,22 41,14 15,0 1,0-1,0 1,-1 0,1-1,0 1,-1-1,1 1,0 0,-1-1,1 1,0 0,-1-1,1 1,-1 0,1 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,-56 86,39-62,1 1,0 1,2 0,-4 12,17-35,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 1,1-1,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,1 0,-1 0,0 0,1 0,1 0,-1-1,1 1,-1-1,1 1,0-1,-1 0,1 0,0 0,1 0,-1-1,0 1,0-1,1 0,-1 0,1 0,-1 0,1-1,3 1,0 0,0-1,0 0,1-1,-1 1,0-1,0-1,0 1,2-2,62-24,-55 20,32-15,28-19,-25 13,-51 28,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 0,1 0,2 11,-3 17,0-22,0 63,0 133,15 93,-14-284,2 13,-1-22</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18731.898">9456 8415,'19'-12,"57"-35,49-21,-82 48,0 2,0 2,2 2,0 2,-38 10,1 0,0 1,-1 0,1 0,-1 1,1 0,0 1,-1-1,8 3,-12-2,0 0,1 0,-1 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 1,-1-1,0 1,1 0,-1-1,0 1,0 0,-1 0,1 1,-1-1,1 0,-1 2,1 3,0 0,0 0,-1 0,0 0,0 1,-1-1,0 0,0 1,-1-1,0 0,-1 2,-4 15,-1 0,-1-1,-2 3,-20 44,-4-3,-2 0,-3-3,-3-1,-2-2,-3-2,-36 33,74-85,-3 5,13-9,8-3,159-6,-75 1,-1 4,93 11,-145-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21714.65">9391 6631,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,2 0,79 1,58 9,-101-5,0 2,0 1,-1 2,29 12,-49-14,-16-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21714.649">9391 6631,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,2 0,79 1,58 9,-101-5,0 2,0 1,-1 2,29 12,-49-14,-16-7</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -9829,8 +9816,8 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">2814 5022,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,-3 0,-7 1,0 1,0 0,0 0,0 1,0 0,1 1,-1 0,1 1,0 0,0 0,-5 5,-1 1,0 1,1 0,0 1,1 1,0 0,0 2,7-8,1 0,-1 1,2 0,-1 0,1 0,0 0,1 1,0-1,0 3,3-8,-1-1,1 1,0 0,0-1,0 1,0 0,0-1,1 1,0-1,0 1,0-1,0 1,0-1,1-1,-1 0,0 1,1-1,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,1 1,-1-1,0 1,1-1,-1 0,2 1,-2-2,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,1-1,-1 1,0 0,1-1,-1 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,1-1,4-6,0 1,0-1,1-2,-4 5,5-7,-2 0,1-1,-1 0,-1 0,-1 0,0-1,2-11,2-20,1-35,-7 56,9-85,-5-102,3 235,33 197,-15-69,-18-111</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1239.181">3195 5541,'0'0,"0"0,0 0,0 0,0 0,-2-2,-43-37,2-2,-9-14,28 27,0-2,2-1,1 0,-2-9,20 34,0 1,0 0,1-1,0 1,1-1,-1 1,1-1,0 0,0 0,1 0,-1 0,1 0,1 1,-1-1,1 0,0 0,0 0,1 1,0-1,0 1,0-1,1 1,-1 0,3-3,13-21,1 0,2 2,0 0,2 1,1 2,1 0,26-18,-11 14,-35 25,0 0,0 1,0 0,0 0,0 0,1 0,2 0,-7 2,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 1,0-1,1 0,-1 1,0-1,1 1,-1-1,0 1,0 0,1-1,-1 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,0 2,0 2,-1 1,1-1,-1 0,0 1,0 0,-4 12,0-1,0-1,-2 1,0-1,0 0,-2 0,1-1,-2 0,0-1,-9 9,6-9,-10 12,-2-2,-9 7,32-29</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3516.244">2842 5536,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 3,6 208,-5-159,-2-37,0-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1239.18">3195 5541,'0'0,"0"0,0 0,0 0,0 0,-2-2,-43-37,2-2,-9-14,28 27,0-2,2-1,1 0,-2-9,20 34,0 1,0 0,1-1,0 1,1-1,-1 1,1-1,0 0,0 0,1 0,-1 0,1 0,1 1,-1-1,1 0,0 0,0 0,1 1,0-1,0 1,0-1,1 1,-1 0,3-3,13-21,1 0,2 2,0 0,2 1,1 2,1 0,26-18,-11 14,-35 25,0 0,0 1,0 0,0 0,0 0,1 0,2 0,-7 2,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 1,0-1,1 0,-1 1,0-1,1 1,-1-1,0 1,0 0,1-1,-1 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,0 2,0 2,-1 1,1-1,-1 0,0 1,0 0,-4 12,0-1,0-1,-2 1,0-1,0 0,-2 0,1-1,-2 0,0-1,-9 9,6-9,-10 12,-2-2,-9 7,32-29</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3516.243">2842 5536,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 3,6 208,-5-159,-2-37,0-10</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4518.4">2681 6266,'0'0,"0"0,0 0,0 2,-1 1,1 0,-1 0,0-1,0 1,0 0,0-1,-1 2,-4 8,-11 41,2 0,2 1,2 0,3 1,0 34,8-74,0 0,1 0,1 1,0-1,1 0,1-1,1 1,0 0,6 11,-7-17,1 1,0-1,1 0,0-1,0 0,1 0,0 0,0-1,1 1,0-2,0 1,1-1,0-1,7 4,-11-7,0 0,0-1,0 0,0 0,0 0,1 0,-1-1,0 0,0 0,1 0,-1-1,0 0,0 0,0 0,0-1,0 1,0-1,0 0,2-2,8-4,0 0,-1-2,0 1,0-2,4-4,-10 6,1 0,-1 0,-1 0,0-1,0 0,-1 0,0-1,0 0,-2 0,1 0,-1-1,-1 0,1-6,1-6,-2 0,-1 0,-1 0,0 0,-2 0,-2-9,2 25,0-1,-1 1,0-1,0 1,-1 0,1 0,-2 0,0 0,0 1,0-1,1 3,-1 1,0-1,0 1,0-1,-1 1,1 0,-1 1,0-1,0 1,-1 0,1 0,0 1,-1-1,-2 1,0-1,0 1,0 1,0 0,-1 0,1 1,0-1,0 2,-1-1,1 1,0 1,-5 1,-9 3,0 1,0 1,-10 6,-35 18,46-22</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-28469.098">158 4353,'38'-1,"-1"-1,0-2,0-1,20-6,-30 3,0 0,-1-2,0 0,-1-2,0-1,8-6,7-8,-2-1,-1-2,-1-2,-2-1,9-13,20-27,-5-3,5-14,43-70,18-52,62-149,54-173,207-471,-376 860,6 4,16-11,54-64,-117 176,2 2,2 2,1 1,12-7,43-32,4 4,21-8,-69 50,1 2,1 3,1 1,1 3,49-13,-24 14,0 3,1 4,7 2,-34 6,0 2,0 2,-1 2,1 3,19 5,-51-7,0 0,-1 1,1 1,-1 1,-1 0,13 8,-16-8,-1 1,0 0,-1 1,0 0,0 1,-1 0,0 1,6 9,3 9,-1 1,-1 0,-2 2,-1-1,8 31,5 36,2 34,-4 5,-6 0,-6 1,-6 1,-6-1,-8 24,-5 5,-11 237,24-319,4 1,3-1,14 62,10-14,5-1,5-2,7-1,37 66,-39-100,5-1,3-4,63 79,-83-128,2 0,2-3,1-1,12 6,33 22,61 34,-97-70,2-1,2-3,1-2,39 13,32 5,-117-39,-6-1,0-1,1 1,-1-1,1 1,0-1,-1 1,1-1,-1 0,1 0,0 0,-1 0,1 0,1 0,-2-1,-2 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-27287.201">228 4498,'2'1,"26"12,0-1,1-2,1 0,0-2,0-1,31 2,40 1,49-4,439-15,1-26,-438 24,456-36,-21 2,1 16,-259 26,0 15,2 14,-131 6,-90-13,-79-18,-31-1</inkml:trace>
@@ -10261,7 +10248,7 @@
       <c r="E7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="18"/>
+      <c r="J7" s="17"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C8" s="8">
@@ -10273,7 +10260,7 @@
       <c r="E8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="19"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C9" s="8">
@@ -10285,7 +10272,7 @@
       <c r="E9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="19"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C10" s="8">
@@ -10297,7 +10284,7 @@
       <c r="E10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="19"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C11" s="8">
@@ -10309,7 +10296,7 @@
       <c r="E11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="19"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C12" s="8">
@@ -10321,13 +10308,13 @@
       <c r="E12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="19"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="J13" s="19"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="J14" s="19"/>
+      <c r="J14" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42693,91 +42680,91 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
     </row>
     <row r="5" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
     </row>
     <row r="6" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
     </row>
     <row r="7" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
     </row>
     <row r="8" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
     </row>
     <row r="9" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" s="4" t="s">
@@ -42850,7 +42837,7 @@
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C16" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.45">
@@ -42884,60 +42871,60 @@
       </c>
     </row>
     <row r="26" spans="3:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="97"/>
     </row>
     <row r="27" spans="3:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="97"/>
     </row>
     <row r="28" spans="3:18" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="97"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="97"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="97"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="97"/>
     </row>
     <row r="29" spans="3:18" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C29" s="12"/>
@@ -42949,7 +42936,7 @@
     </row>
     <row r="31" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C31" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="3:18" x14ac:dyDescent="0.45">
@@ -42990,39 +42977,39 @@
     <row r="39" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="40" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="41" spans="3:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="97"/>
     </row>
     <row r="42" spans="3:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="97"/>
+      <c r="K42" s="97"/>
     </row>
     <row r="43" spans="3:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="97"/>
+      <c r="J43" s="97"/>
+      <c r="K43" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -43044,216 +43031,216 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="84"/>
+    <col min="1" max="16384" width="8.88671875" style="76"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="75" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="85">
-        <v>1</v>
-      </c>
-      <c r="B3" s="84" t="s">
+      <c r="A3" s="77">
+        <v>1</v>
+      </c>
+      <c r="B3" s="76" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="78" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="76" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="76" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="84">
+      <c r="A6" s="76">
         <v>2</v>
       </c>
-      <c r="B6" s="84" t="s">
-        <v>191</v>
+      <c r="B6" s="76" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="84" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7" s="84" t="s">
+      <c r="A7" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="76" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="84" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" s="84" t="s">
+      <c r="A8" s="76" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="76" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="83" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10" s="84" t="s">
+      <c r="A10" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="76" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="87"/>
+      <c r="B11" s="79"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="84" t="s">
-        <v>203</v>
-      </c>
-      <c r="B12" s="84" t="s">
+      <c r="A12" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="76" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="76" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="84" t="s">
-        <v>210</v>
+      <c r="B14" s="76" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="76" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="76" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="84" t="s">
-        <v>204</v>
-      </c>
-      <c r="B18" s="84" t="s">
-        <v>211</v>
+      <c r="A18" s="76" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" s="76" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="84" t="s">
-        <v>205</v>
-      </c>
-      <c r="B20" s="84" t="s">
-        <v>212</v>
+      <c r="A20" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="84" t="s">
-        <v>206</v>
-      </c>
-      <c r="B22" s="88" t="s">
-        <v>213</v>
-      </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="88"/>
+      <c r="A22" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" s="98" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="98"/>
     </row>
     <row r="23" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="98"/>
     </row>
     <row r="24" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="88"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="98"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="75" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="84">
+      <c r="A29" s="76">
         <v>4</v>
       </c>
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="76" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="89" t="s">
+      <c r="B30" s="80" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="81" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="90" t="s">
+      <c r="B32" s="81" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="81" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="81" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="81" t="s">
         <v>94</v>
       </c>
     </row>
@@ -43284,179 +43271,179 @@
     <col min="34" max="34" width="14.33203125" customWidth="1"/>
     <col min="35" max="43" width="10.33203125" customWidth="1"/>
     <col min="44" max="44" width="11.33203125" customWidth="1"/>
-    <col min="53" max="53" width="19.33203125" style="28" customWidth="1"/>
-    <col min="54" max="54" width="19.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.33203125" style="27" customWidth="1"/>
+    <col min="54" max="54" width="19.44140625" style="26" bestFit="1" customWidth="1"/>
     <col min="55" max="82" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:59" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="V1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="29" t="s">
+      <c r="W1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="29" t="s">
+      <c r="X1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="Y1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="29" t="s">
+      <c r="Z1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="29" t="s">
+      <c r="AA1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="29" t="s">
+      <c r="AB1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="29" t="s">
+      <c r="AC1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="29" t="s">
+      <c r="AD1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="AE1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="29" t="s">
+      <c r="AF1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="29" t="s">
+      <c r="AG1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="29" t="s">
+      <c r="AH1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" s="29" t="s">
+      <c r="AI1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="29" t="s">
+      <c r="AJ1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="29" t="s">
+      <c r="AK1" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="29" t="s">
+      <c r="AL1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="29" t="s">
+      <c r="AM1" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="AN1" s="29" t="s">
+      <c r="AN1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="29" t="s">
+      <c r="AO1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="29" t="s">
+      <c r="AP1" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="29" t="s">
+      <c r="AQ1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="29" t="s">
+      <c r="AR1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AS1" s="29" t="s">
+      <c r="AS1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="29" t="s">
+      <c r="AT1" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" s="29" t="s">
+      <c r="AU1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="29" t="s">
+      <c r="AV1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" s="29" t="s">
+      <c r="AW1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="29" t="s">
+      <c r="AX1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" s="29" t="s">
+      <c r="AY1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" s="29" t="s">
+      <c r="AZ1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="BA1" s="31" t="s">
+      <c r="BA1" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="BB1" s="32" t="s">
+      <c r="BB1" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="BC1" s="29"/>
-      <c r="BD1" s="29"/>
-      <c r="BE1" s="29"/>
-      <c r="BF1" s="29"/>
-      <c r="BG1" s="29"/>
+      <c r="BC1" s="28"/>
+      <c r="BD1" s="28"/>
+      <c r="BE1" s="28"/>
+      <c r="BF1" s="28"/>
+      <c r="BG1" s="28"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
@@ -43613,11 +43600,11 @@
       <c r="AZ2" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" s="28">
+      <c r="BA2" s="27">
         <f>COUNT(B2:N2,O2:R2,S2,T2:W2,X2,Y2:AB2,AC2,AD2:AG2,AH2,AI2:AL2,AM2,AN2:AQ2,AR2,AS2:AZ2)</f>
         <v>21</v>
       </c>
-      <c r="BB2" s="27" t="b">
+      <c r="BB2" s="26" t="b">
         <f>IF(BA2=21,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -43779,11 +43766,11 @@
       <c r="AZ3" t="s">
         <v>51</v>
       </c>
-      <c r="BA3" s="28">
+      <c r="BA3" s="27">
         <f t="shared" ref="BA3:BA66" si="3">COUNT(B3:N3,O3:R3,S3,T3:W3,X3,Y3:AB3,AC3,AD3:AG3,AH3,AI3:AL3,AM3,AN3:AQ3,AR3,AS3:AZ3)</f>
         <v>21</v>
       </c>
-      <c r="BB3" s="27" t="b">
+      <c r="BB3" s="26" t="b">
         <f t="shared" ref="BB3:BB66" si="4">IF(BA3=21,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -43945,11 +43932,11 @@
       <c r="AZ4" t="s">
         <v>52</v>
       </c>
-      <c r="BA4" s="28">
+      <c r="BA4" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB4" s="27" t="b">
+      <c r="BB4" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -44111,11 +44098,11 @@
       <c r="AZ5" t="s">
         <v>49</v>
       </c>
-      <c r="BA5" s="28">
+      <c r="BA5" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB5" s="27" t="b">
+      <c r="BB5" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -44280,11 +44267,11 @@
       <c r="AZ6" t="s">
         <v>49</v>
       </c>
-      <c r="BA6" s="28">
+      <c r="BA6" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB6" s="27" t="b">
+      <c r="BB6" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -44449,11 +44436,11 @@
       <c r="AZ7" t="s">
         <v>51</v>
       </c>
-      <c r="BA7" s="28">
+      <c r="BA7" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB7" s="27" t="b">
+      <c r="BB7" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -44615,11 +44602,11 @@
       <c r="AZ8" t="s">
         <v>49</v>
       </c>
-      <c r="BA8" s="28">
+      <c r="BA8" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB8" s="27" t="b">
+      <c r="BB8" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -44781,11 +44768,11 @@
       <c r="AZ9" t="s">
         <v>51</v>
       </c>
-      <c r="BA9" s="28">
+      <c r="BA9" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB9" s="27" t="b">
+      <c r="BB9" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -44947,11 +44934,11 @@
       <c r="AZ10" t="s">
         <v>49</v>
       </c>
-      <c r="BA10" s="28">
+      <c r="BA10" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB10" s="27" t="b">
+      <c r="BB10" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -45113,11 +45100,11 @@
       <c r="AZ11" t="s">
         <v>51</v>
       </c>
-      <c r="BA11" s="28">
+      <c r="BA11" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB11" s="27" t="b">
+      <c r="BB11" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -45279,11 +45266,11 @@
       <c r="AZ12" t="s">
         <v>49</v>
       </c>
-      <c r="BA12" s="28">
+      <c r="BA12" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB12" s="27" t="b">
+      <c r="BB12" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -45445,11 +45432,11 @@
       <c r="AZ13" t="s">
         <v>51</v>
       </c>
-      <c r="BA13" s="28">
+      <c r="BA13" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB13" s="27" t="b">
+      <c r="BB13" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -45611,11 +45598,11 @@
       <c r="AZ14" t="s">
         <v>51</v>
       </c>
-      <c r="BA14" s="28">
+      <c r="BA14" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB14" s="27" t="b">
+      <c r="BB14" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -45777,11 +45764,11 @@
       <c r="AZ15" t="s">
         <v>51</v>
       </c>
-      <c r="BA15" s="28">
+      <c r="BA15" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB15" s="27" t="b">
+      <c r="BB15" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -45943,11 +45930,11 @@
       <c r="AZ16" t="s">
         <v>49</v>
       </c>
-      <c r="BA16" s="28">
+      <c r="BA16" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB16" s="27" t="b">
+      <c r="BB16" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -46112,11 +46099,11 @@
       <c r="AZ17" t="s">
         <v>51</v>
       </c>
-      <c r="BA17" s="28">
+      <c r="BA17" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB17" s="27" t="b">
+      <c r="BB17" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -46281,11 +46268,11 @@
       <c r="AZ18" t="s">
         <v>51</v>
       </c>
-      <c r="BA18" s="28">
+      <c r="BA18" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB18" s="27" t="b">
+      <c r="BB18" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -46450,11 +46437,11 @@
       <c r="AZ19" t="s">
         <v>51</v>
       </c>
-      <c r="BA19" s="28">
+      <c r="BA19" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB19" s="27" t="b">
+      <c r="BB19" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -46619,11 +46606,11 @@
       <c r="AZ20" t="s">
         <v>49</v>
       </c>
-      <c r="BA20" s="28">
+      <c r="BA20" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB20" s="27" t="b">
+      <c r="BB20" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -46788,11 +46775,11 @@
       <c r="AZ21" t="s">
         <v>50</v>
       </c>
-      <c r="BA21" s="28">
+      <c r="BA21" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB21" s="27" t="b">
+      <c r="BB21" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -46957,11 +46944,11 @@
       <c r="AZ22" t="s">
         <v>50</v>
       </c>
-      <c r="BA22" s="28">
+      <c r="BA22" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB22" s="27" t="b">
+      <c r="BB22" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -47126,11 +47113,11 @@
       <c r="AZ23" t="s">
         <v>51</v>
       </c>
-      <c r="BA23" s="28">
+      <c r="BA23" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB23" s="27" t="b">
+      <c r="BB23" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -47295,11 +47282,11 @@
       <c r="AZ24" t="s">
         <v>49</v>
       </c>
-      <c r="BA24" s="28">
+      <c r="BA24" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB24" s="27" t="b">
+      <c r="BB24" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -47464,11 +47451,11 @@
       <c r="AZ25" t="s">
         <v>51</v>
       </c>
-      <c r="BA25" s="28">
+      <c r="BA25" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB25" s="27" t="b">
+      <c r="BB25" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -47633,11 +47620,11 @@
       <c r="AZ26" t="s">
         <v>51</v>
       </c>
-      <c r="BA26" s="28">
+      <c r="BA26" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB26" s="27" t="b">
+      <c r="BB26" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -47802,11 +47789,11 @@
       <c r="AZ27" t="s">
         <v>51</v>
       </c>
-      <c r="BA27" s="28">
+      <c r="BA27" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB27" s="27" t="b">
+      <c r="BB27" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -47971,11 +47958,11 @@
       <c r="AZ28" t="s">
         <v>49</v>
       </c>
-      <c r="BA28" s="28">
+      <c r="BA28" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB28" s="27" t="b">
+      <c r="BB28" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -48140,11 +48127,11 @@
       <c r="AZ29" t="s">
         <v>51</v>
       </c>
-      <c r="BA29" s="28">
+      <c r="BA29" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB29" s="27" t="b">
+      <c r="BB29" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -48309,11 +48296,11 @@
       <c r="AZ30" t="s">
         <v>49</v>
       </c>
-      <c r="BA30" s="28">
+      <c r="BA30" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB30" s="27" t="b">
+      <c r="BB30" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -48478,11 +48465,11 @@
       <c r="AZ31" t="s">
         <v>49</v>
       </c>
-      <c r="BA31" s="28">
+      <c r="BA31" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB31" s="27" t="b">
+      <c r="BB31" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -48647,11 +48634,11 @@
       <c r="AZ32" t="s">
         <v>49</v>
       </c>
-      <c r="BA32" s="28">
+      <c r="BA32" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB32" s="27" t="b">
+      <c r="BB32" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -48816,11 +48803,11 @@
       <c r="AZ33" t="s">
         <v>51</v>
       </c>
-      <c r="BA33" s="28">
+      <c r="BA33" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB33" s="27" t="b">
+      <c r="BB33" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -48985,11 +48972,11 @@
       <c r="AZ34" t="s">
         <v>51</v>
       </c>
-      <c r="BA34" s="28">
+      <c r="BA34" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB34" s="27" t="b">
+      <c r="BB34" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -49154,11 +49141,11 @@
       <c r="AZ35" t="s">
         <v>51</v>
       </c>
-      <c r="BA35" s="28">
+      <c r="BA35" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB35" s="27" t="b">
+      <c r="BB35" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -49323,11 +49310,11 @@
       <c r="AZ36" t="s">
         <v>51</v>
       </c>
-      <c r="BA36" s="28">
+      <c r="BA36" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB36" s="27" t="b">
+      <c r="BB36" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -49492,11 +49479,11 @@
       <c r="AZ37" t="s">
         <v>51</v>
       </c>
-      <c r="BA37" s="28">
+      <c r="BA37" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB37" s="27" t="b">
+      <c r="BB37" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -49661,11 +49648,11 @@
       <c r="AZ38" t="s">
         <v>49</v>
       </c>
-      <c r="BA38" s="28">
+      <c r="BA38" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB38" s="27" t="b">
+      <c r="BB38" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -49830,11 +49817,11 @@
       <c r="AZ39" t="s">
         <v>49</v>
       </c>
-      <c r="BA39" s="28">
+      <c r="BA39" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB39" s="27" t="b">
+      <c r="BB39" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -49999,11 +49986,11 @@
       <c r="AZ40" t="s">
         <v>51</v>
       </c>
-      <c r="BA40" s="28">
+      <c r="BA40" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB40" s="27" t="b">
+      <c r="BB40" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -50168,11 +50155,11 @@
       <c r="AZ41" t="s">
         <v>50</v>
       </c>
-      <c r="BA41" s="28">
+      <c r="BA41" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB41" s="27" t="b">
+      <c r="BB41" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -50337,11 +50324,11 @@
       <c r="AZ42" t="s">
         <v>51</v>
       </c>
-      <c r="BA42" s="28">
+      <c r="BA42" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB42" s="27" t="b">
+      <c r="BB42" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -50506,11 +50493,11 @@
       <c r="AZ43" t="s">
         <v>49</v>
       </c>
-      <c r="BA43" s="28">
+      <c r="BA43" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB43" s="27" t="b">
+      <c r="BB43" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -50675,11 +50662,11 @@
       <c r="AZ44" t="s">
         <v>51</v>
       </c>
-      <c r="BA44" s="28">
+      <c r="BA44" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB44" s="27" t="b">
+      <c r="BB44" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -50844,11 +50831,11 @@
       <c r="AZ45" t="s">
         <v>49</v>
       </c>
-      <c r="BA45" s="28">
+      <c r="BA45" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB45" s="27" t="b">
+      <c r="BB45" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -51013,11 +51000,11 @@
       <c r="AZ46" t="s">
         <v>51</v>
       </c>
-      <c r="BA46" s="28">
+      <c r="BA46" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB46" s="27" t="b">
+      <c r="BB46" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -51182,11 +51169,11 @@
       <c r="AZ47" t="s">
         <v>51</v>
       </c>
-      <c r="BA47" s="28">
+      <c r="BA47" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB47" s="27" t="b">
+      <c r="BB47" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -51351,11 +51338,11 @@
       <c r="AZ48" t="s">
         <v>49</v>
       </c>
-      <c r="BA48" s="28">
+      <c r="BA48" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB48" s="27" t="b">
+      <c r="BB48" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -51520,11 +51507,11 @@
       <c r="AZ49" t="s">
         <v>51</v>
       </c>
-      <c r="BA49" s="28">
+      <c r="BA49" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB49" s="27" t="b">
+      <c r="BB49" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -51689,11 +51676,11 @@
       <c r="AZ50" t="s">
         <v>51</v>
       </c>
-      <c r="BA50" s="28">
+      <c r="BA50" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB50" s="27" t="b">
+      <c r="BB50" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -51858,11 +51845,11 @@
       <c r="AZ51" t="s">
         <v>49</v>
       </c>
-      <c r="BA51" s="28">
+      <c r="BA51" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB51" s="27" t="b">
+      <c r="BB51" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -52027,11 +52014,11 @@
       <c r="AZ52" t="s">
         <v>49</v>
       </c>
-      <c r="BA52" s="28">
+      <c r="BA52" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB52" s="27" t="b">
+      <c r="BB52" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -52196,11 +52183,11 @@
       <c r="AZ53" t="s">
         <v>51</v>
       </c>
-      <c r="BA53" s="28">
+      <c r="BA53" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB53" s="27" t="b">
+      <c r="BB53" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -52365,11 +52352,11 @@
       <c r="AZ54" t="s">
         <v>49</v>
       </c>
-      <c r="BA54" s="28">
+      <c r="BA54" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB54" s="27" t="b">
+      <c r="BB54" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -52534,11 +52521,11 @@
       <c r="AZ55" t="s">
         <v>51</v>
       </c>
-      <c r="BA55" s="28">
+      <c r="BA55" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB55" s="27" t="b">
+      <c r="BB55" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -52703,11 +52690,11 @@
       <c r="AZ56" t="s">
         <v>51</v>
       </c>
-      <c r="BA56" s="28">
+      <c r="BA56" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB56" s="27" t="b">
+      <c r="BB56" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -52872,11 +52859,11 @@
       <c r="AZ57" t="s">
         <v>51</v>
       </c>
-      <c r="BA57" s="28">
+      <c r="BA57" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB57" s="27" t="b">
+      <c r="BB57" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -53041,11 +53028,11 @@
       <c r="AZ58" t="s">
         <v>51</v>
       </c>
-      <c r="BA58" s="28">
+      <c r="BA58" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB58" s="27" t="b">
+      <c r="BB58" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -53210,11 +53197,11 @@
       <c r="AZ59" t="s">
         <v>49</v>
       </c>
-      <c r="BA59" s="28">
+      <c r="BA59" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB59" s="27" t="b">
+      <c r="BB59" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -53379,11 +53366,11 @@
       <c r="AZ60" t="s">
         <v>51</v>
       </c>
-      <c r="BA60" s="28">
+      <c r="BA60" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB60" s="27" t="b">
+      <c r="BB60" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -53548,11 +53535,11 @@
       <c r="AZ61" t="s">
         <v>49</v>
       </c>
-      <c r="BA61" s="28">
+      <c r="BA61" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB61" s="27" t="b">
+      <c r="BB61" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -53717,11 +53704,11 @@
       <c r="AZ62" t="s">
         <v>51</v>
       </c>
-      <c r="BA62" s="28">
+      <c r="BA62" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB62" s="27" t="b">
+      <c r="BB62" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -53886,11 +53873,11 @@
       <c r="AZ63" t="s">
         <v>49</v>
       </c>
-      <c r="BA63" s="28">
+      <c r="BA63" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB63" s="27" t="b">
+      <c r="BB63" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -54055,11 +54042,11 @@
       <c r="AZ64" t="s">
         <v>49</v>
       </c>
-      <c r="BA64" s="28">
+      <c r="BA64" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB64" s="27" t="b">
+      <c r="BB64" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -54224,11 +54211,11 @@
       <c r="AZ65" t="s">
         <v>51</v>
       </c>
-      <c r="BA65" s="28">
+      <c r="BA65" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB65" s="27" t="b">
+      <c r="BB65" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -54393,11 +54380,11 @@
       <c r="AZ66" t="s">
         <v>51</v>
       </c>
-      <c r="BA66" s="28">
+      <c r="BA66" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BB66" s="27" t="b">
+      <c r="BB66" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -54562,11 +54549,11 @@
       <c r="AZ67" t="s">
         <v>49</v>
       </c>
-      <c r="BA67" s="28">
+      <c r="BA67" s="27">
         <f t="shared" ref="BA67:BA130" si="8">COUNT(B67:N67,O67:R67,S67,T67:W67,X67,Y67:AB67,AC67,AD67:AG67,AH67,AI67:AL67,AM67,AN67:AQ67,AR67,AS67:AZ67)</f>
         <v>21</v>
       </c>
-      <c r="BB67" s="27" t="b">
+      <c r="BB67" s="26" t="b">
         <f t="shared" ref="BB67:BB130" si="9">IF(BA67=21,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -54731,11 +54718,11 @@
       <c r="AZ68" t="s">
         <v>49</v>
       </c>
-      <c r="BA68" s="28">
+      <c r="BA68" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB68" s="27" t="b">
+      <c r="BB68" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -54900,11 +54887,11 @@
       <c r="AZ69" t="s">
         <v>49</v>
       </c>
-      <c r="BA69" s="28">
+      <c r="BA69" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB69" s="27" t="b">
+      <c r="BB69" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -55069,11 +55056,11 @@
       <c r="AZ70" t="s">
         <v>51</v>
       </c>
-      <c r="BA70" s="28">
+      <c r="BA70" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB70" s="27" t="b">
+      <c r="BB70" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -55238,11 +55225,11 @@
       <c r="AZ71" t="s">
         <v>51</v>
       </c>
-      <c r="BA71" s="28">
+      <c r="BA71" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB71" s="27" t="b">
+      <c r="BB71" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -55407,11 +55394,11 @@
       <c r="AZ72" t="s">
         <v>51</v>
       </c>
-      <c r="BA72" s="28">
+      <c r="BA72" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB72" s="27" t="b">
+      <c r="BB72" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -55576,11 +55563,11 @@
       <c r="AZ73" t="s">
         <v>49</v>
       </c>
-      <c r="BA73" s="28">
+      <c r="BA73" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB73" s="27" t="b">
+      <c r="BB73" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -55745,11 +55732,11 @@
       <c r="AZ74" t="s">
         <v>51</v>
       </c>
-      <c r="BA74" s="28">
+      <c r="BA74" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB74" s="27" t="b">
+      <c r="BB74" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -55914,11 +55901,11 @@
       <c r="AZ75" t="s">
         <v>49</v>
       </c>
-      <c r="BA75" s="28">
+      <c r="BA75" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB75" s="27" t="b">
+      <c r="BB75" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -56083,11 +56070,11 @@
       <c r="AZ76" t="s">
         <v>49</v>
       </c>
-      <c r="BA76" s="28">
+      <c r="BA76" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB76" s="27" t="b">
+      <c r="BB76" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -56252,11 +56239,11 @@
       <c r="AZ77" t="s">
         <v>49</v>
       </c>
-      <c r="BA77" s="28">
+      <c r="BA77" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB77" s="27" t="b">
+      <c r="BB77" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -56421,11 +56408,11 @@
       <c r="AZ78" t="s">
         <v>49</v>
       </c>
-      <c r="BA78" s="28">
+      <c r="BA78" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB78" s="27" t="b">
+      <c r="BB78" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -56590,11 +56577,11 @@
       <c r="AZ79" t="s">
         <v>51</v>
       </c>
-      <c r="BA79" s="28">
+      <c r="BA79" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB79" s="27" t="b">
+      <c r="BB79" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -56759,11 +56746,11 @@
       <c r="AZ80" t="s">
         <v>51</v>
       </c>
-      <c r="BA80" s="28">
+      <c r="BA80" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB80" s="27" t="b">
+      <c r="BB80" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -56928,11 +56915,11 @@
       <c r="AZ81" t="s">
         <v>49</v>
       </c>
-      <c r="BA81" s="28">
+      <c r="BA81" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB81" s="27" t="b">
+      <c r="BB81" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -57097,11 +57084,11 @@
       <c r="AZ82" t="s">
         <v>49</v>
       </c>
-      <c r="BA82" s="28">
+      <c r="BA82" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB82" s="27" t="b">
+      <c r="BB82" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -57266,11 +57253,11 @@
       <c r="AZ83" t="s">
         <v>51</v>
       </c>
-      <c r="BA83" s="28">
+      <c r="BA83" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB83" s="27" t="b">
+      <c r="BB83" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -57435,11 +57422,11 @@
       <c r="AZ84" t="s">
         <v>51</v>
       </c>
-      <c r="BA84" s="28">
+      <c r="BA84" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB84" s="27" t="b">
+      <c r="BB84" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -57604,11 +57591,11 @@
       <c r="AZ85" t="s">
         <v>50</v>
       </c>
-      <c r="BA85" s="28">
+      <c r="BA85" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB85" s="27" t="b">
+      <c r="BB85" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -57773,11 +57760,11 @@
       <c r="AZ86" t="s">
         <v>52</v>
       </c>
-      <c r="BA86" s="28">
+      <c r="BA86" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB86" s="27" t="b">
+      <c r="BB86" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -57942,11 +57929,11 @@
       <c r="AZ87" t="s">
         <v>51</v>
       </c>
-      <c r="BA87" s="28">
+      <c r="BA87" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB87" s="27" t="b">
+      <c r="BB87" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -58111,11 +58098,11 @@
       <c r="AZ88" t="s">
         <v>51</v>
       </c>
-      <c r="BA88" s="28">
+      <c r="BA88" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB88" s="27" t="b">
+      <c r="BB88" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -58280,11 +58267,11 @@
       <c r="AZ89" t="s">
         <v>51</v>
       </c>
-      <c r="BA89" s="28">
+      <c r="BA89" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB89" s="27" t="b">
+      <c r="BB89" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -58449,11 +58436,11 @@
       <c r="AZ90" t="s">
         <v>51</v>
       </c>
-      <c r="BA90" s="28">
+      <c r="BA90" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB90" s="27" t="b">
+      <c r="BB90" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -58618,11 +58605,11 @@
       <c r="AZ91" t="s">
         <v>51</v>
       </c>
-      <c r="BA91" s="28">
+      <c r="BA91" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB91" s="27" t="b">
+      <c r="BB91" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -58787,11 +58774,11 @@
       <c r="AZ92" t="s">
         <v>49</v>
       </c>
-      <c r="BA92" s="28">
+      <c r="BA92" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB92" s="27" t="b">
+      <c r="BB92" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -58956,11 +58943,11 @@
       <c r="AZ93" t="s">
         <v>49</v>
       </c>
-      <c r="BA93" s="28">
+      <c r="BA93" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB93" s="27" t="b">
+      <c r="BB93" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -59125,11 +59112,11 @@
       <c r="AZ94" t="s">
         <v>49</v>
       </c>
-      <c r="BA94" s="28">
+      <c r="BA94" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB94" s="27" t="b">
+      <c r="BB94" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -59294,11 +59281,11 @@
       <c r="AZ95" t="s">
         <v>51</v>
       </c>
-      <c r="BA95" s="28">
+      <c r="BA95" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB95" s="27" t="b">
+      <c r="BB95" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -59463,11 +59450,11 @@
       <c r="AZ96" t="s">
         <v>51</v>
       </c>
-      <c r="BA96" s="28">
+      <c r="BA96" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB96" s="27" t="b">
+      <c r="BB96" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -59632,11 +59619,11 @@
       <c r="AZ97" t="s">
         <v>51</v>
       </c>
-      <c r="BA97" s="28">
+      <c r="BA97" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB97" s="27" t="b">
+      <c r="BB97" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -59801,11 +59788,11 @@
       <c r="AZ98" t="s">
         <v>51</v>
       </c>
-      <c r="BA98" s="28">
+      <c r="BA98" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB98" s="27" t="b">
+      <c r="BB98" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -59970,11 +59957,11 @@
       <c r="AZ99" t="s">
         <v>51</v>
       </c>
-      <c r="BA99" s="28">
+      <c r="BA99" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB99" s="27" t="b">
+      <c r="BB99" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -60139,11 +60126,11 @@
       <c r="AZ100" t="s">
         <v>51</v>
       </c>
-      <c r="BA100" s="28">
+      <c r="BA100" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB100" s="27" t="b">
+      <c r="BB100" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -60308,11 +60295,11 @@
       <c r="AZ101" t="s">
         <v>49</v>
       </c>
-      <c r="BA101" s="28">
+      <c r="BA101" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB101" s="27" t="b">
+      <c r="BB101" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -60477,11 +60464,11 @@
       <c r="AZ102" t="s">
         <v>51</v>
       </c>
-      <c r="BA102" s="28">
+      <c r="BA102" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB102" s="27" t="b">
+      <c r="BB102" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -60646,11 +60633,11 @@
       <c r="AZ103" t="s">
         <v>50</v>
       </c>
-      <c r="BA103" s="28">
+      <c r="BA103" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB103" s="27" t="b">
+      <c r="BB103" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -60815,11 +60802,11 @@
       <c r="AZ104" t="s">
         <v>51</v>
       </c>
-      <c r="BA104" s="28">
+      <c r="BA104" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB104" s="27" t="b">
+      <c r="BB104" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -60984,11 +60971,11 @@
       <c r="AZ105" t="s">
         <v>49</v>
       </c>
-      <c r="BA105" s="28">
+      <c r="BA105" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB105" s="27" t="b">
+      <c r="BB105" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -61153,11 +61140,11 @@
       <c r="AZ106" t="s">
         <v>51</v>
       </c>
-      <c r="BA106" s="28">
+      <c r="BA106" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB106" s="27" t="b">
+      <c r="BB106" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -61322,11 +61309,11 @@
       <c r="AZ107" t="s">
         <v>51</v>
       </c>
-      <c r="BA107" s="28">
+      <c r="BA107" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB107" s="27" t="b">
+      <c r="BB107" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -61491,11 +61478,11 @@
       <c r="AZ108" t="s">
         <v>50</v>
       </c>
-      <c r="BA108" s="28">
+      <c r="BA108" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB108" s="27" t="b">
+      <c r="BB108" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -61660,11 +61647,11 @@
       <c r="AZ109" t="s">
         <v>51</v>
       </c>
-      <c r="BA109" s="28">
+      <c r="BA109" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB109" s="27" t="b">
+      <c r="BB109" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -61829,11 +61816,11 @@
       <c r="AZ110" t="s">
         <v>51</v>
       </c>
-      <c r="BA110" s="28">
+      <c r="BA110" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB110" s="27" t="b">
+      <c r="BB110" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -61998,11 +61985,11 @@
       <c r="AZ111" t="s">
         <v>51</v>
       </c>
-      <c r="BA111" s="28">
+      <c r="BA111" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB111" s="27" t="b">
+      <c r="BB111" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -62167,11 +62154,11 @@
       <c r="AZ112" t="s">
         <v>49</v>
       </c>
-      <c r="BA112" s="28">
+      <c r="BA112" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB112" s="27" t="b">
+      <c r="BB112" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -62336,11 +62323,11 @@
       <c r="AZ113" t="s">
         <v>49</v>
       </c>
-      <c r="BA113" s="28">
+      <c r="BA113" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB113" s="27" t="b">
+      <c r="BB113" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -62505,11 +62492,11 @@
       <c r="AZ114" t="s">
         <v>49</v>
       </c>
-      <c r="BA114" s="28">
+      <c r="BA114" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB114" s="27" t="b">
+      <c r="BB114" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -62674,11 +62661,11 @@
       <c r="AZ115" t="s">
         <v>51</v>
       </c>
-      <c r="BA115" s="28">
+      <c r="BA115" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB115" s="27" t="b">
+      <c r="BB115" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -62843,11 +62830,11 @@
       <c r="AZ116" t="s">
         <v>51</v>
       </c>
-      <c r="BA116" s="28">
+      <c r="BA116" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB116" s="27" t="b">
+      <c r="BB116" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -63012,11 +62999,11 @@
       <c r="AZ117" t="s">
         <v>49</v>
       </c>
-      <c r="BA117" s="28">
+      <c r="BA117" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB117" s="27" t="b">
+      <c r="BB117" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -63181,11 +63168,11 @@
       <c r="AZ118" t="s">
         <v>49</v>
       </c>
-      <c r="BA118" s="28">
+      <c r="BA118" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB118" s="27" t="b">
+      <c r="BB118" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -63350,11 +63337,11 @@
       <c r="AZ119" t="s">
         <v>49</v>
       </c>
-      <c r="BA119" s="28">
+      <c r="BA119" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB119" s="27" t="b">
+      <c r="BB119" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -63519,11 +63506,11 @@
       <c r="AZ120" t="s">
         <v>49</v>
       </c>
-      <c r="BA120" s="28">
+      <c r="BA120" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB120" s="27" t="b">
+      <c r="BB120" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -63688,11 +63675,11 @@
       <c r="AZ121" t="s">
         <v>49</v>
       </c>
-      <c r="BA121" s="28">
+      <c r="BA121" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB121" s="27" t="b">
+      <c r="BB121" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -63857,11 +63844,11 @@
       <c r="AZ122" t="s">
         <v>50</v>
       </c>
-      <c r="BA122" s="28">
+      <c r="BA122" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB122" s="27" t="b">
+      <c r="BB122" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -64026,11 +64013,11 @@
       <c r="AZ123" t="s">
         <v>51</v>
       </c>
-      <c r="BA123" s="28">
+      <c r="BA123" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB123" s="27" t="b">
+      <c r="BB123" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -64195,11 +64182,11 @@
       <c r="AZ124" t="s">
         <v>51</v>
       </c>
-      <c r="BA124" s="28">
+      <c r="BA124" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB124" s="27" t="b">
+      <c r="BB124" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -64364,11 +64351,11 @@
       <c r="AZ125" t="s">
         <v>51</v>
       </c>
-      <c r="BA125" s="28">
+      <c r="BA125" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB125" s="27" t="b">
+      <c r="BB125" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -64533,11 +64520,11 @@
       <c r="AZ126" t="s">
         <v>51</v>
       </c>
-      <c r="BA126" s="28">
+      <c r="BA126" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB126" s="27" t="b">
+      <c r="BB126" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -64702,11 +64689,11 @@
       <c r="AZ127" t="s">
         <v>50</v>
       </c>
-      <c r="BA127" s="28">
+      <c r="BA127" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB127" s="27" t="b">
+      <c r="BB127" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -64871,11 +64858,11 @@
       <c r="AZ128" t="s">
         <v>49</v>
       </c>
-      <c r="BA128" s="28">
+      <c r="BA128" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB128" s="27" t="b">
+      <c r="BB128" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -65040,11 +65027,11 @@
       <c r="AZ129" t="s">
         <v>49</v>
       </c>
-      <c r="BA129" s="28">
+      <c r="BA129" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB129" s="27" t="b">
+      <c r="BB129" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -65209,11 +65196,11 @@
       <c r="AZ130" t="s">
         <v>49</v>
       </c>
-      <c r="BA130" s="28">
+      <c r="BA130" s="27">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BB130" s="27" t="b">
+      <c r="BB130" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -65378,11 +65365,11 @@
       <c r="AZ131" t="s">
         <v>49</v>
       </c>
-      <c r="BA131" s="28">
+      <c r="BA131" s="27">
         <f t="shared" ref="BA131:BA194" si="13">COUNT(B131:N131,O131:R131,S131,T131:W131,X131,Y131:AB131,AC131,AD131:AG131,AH131,AI131:AL131,AM131,AN131:AQ131,AR131,AS131:AZ131)</f>
         <v>21</v>
       </c>
-      <c r="BB131" s="27" t="b">
+      <c r="BB131" s="26" t="b">
         <f t="shared" ref="BB131:BB194" si="14">IF(BA131=21,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -65547,11 +65534,11 @@
       <c r="AZ132" t="s">
         <v>49</v>
       </c>
-      <c r="BA132" s="28">
+      <c r="BA132" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB132" s="27" t="b">
+      <c r="BB132" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -65716,11 +65703,11 @@
       <c r="AZ133" t="s">
         <v>51</v>
       </c>
-      <c r="BA133" s="28">
+      <c r="BA133" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB133" s="27" t="b">
+      <c r="BB133" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -65885,11 +65872,11 @@
       <c r="AZ134" t="s">
         <v>51</v>
       </c>
-      <c r="BA134" s="28">
+      <c r="BA134" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB134" s="27" t="b">
+      <c r="BB134" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -66054,11 +66041,11 @@
       <c r="AZ135" t="s">
         <v>51</v>
       </c>
-      <c r="BA135" s="28">
+      <c r="BA135" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB135" s="27" t="b">
+      <c r="BB135" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -66223,11 +66210,11 @@
       <c r="AZ136" t="s">
         <v>51</v>
       </c>
-      <c r="BA136" s="28">
+      <c r="BA136" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB136" s="27" t="b">
+      <c r="BB136" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -66392,11 +66379,11 @@
       <c r="AZ137" t="s">
         <v>49</v>
       </c>
-      <c r="BA137" s="28">
+      <c r="BA137" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB137" s="27" t="b">
+      <c r="BB137" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -66561,11 +66548,11 @@
       <c r="AZ138" t="s">
         <v>50</v>
       </c>
-      <c r="BA138" s="28">
+      <c r="BA138" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB138" s="27" t="b">
+      <c r="BB138" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -66730,11 +66717,11 @@
       <c r="AZ139" t="s">
         <v>51</v>
       </c>
-      <c r="BA139" s="28">
+      <c r="BA139" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB139" s="27" t="b">
+      <c r="BB139" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -66899,11 +66886,11 @@
       <c r="AZ140" t="s">
         <v>51</v>
       </c>
-      <c r="BA140" s="28">
+      <c r="BA140" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB140" s="27" t="b">
+      <c r="BB140" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -67068,11 +67055,11 @@
       <c r="AZ141" t="s">
         <v>51</v>
       </c>
-      <c r="BA141" s="28">
+      <c r="BA141" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB141" s="27" t="b">
+      <c r="BB141" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -67237,11 +67224,11 @@
       <c r="AZ142" t="s">
         <v>49</v>
       </c>
-      <c r="BA142" s="28">
+      <c r="BA142" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB142" s="27" t="b">
+      <c r="BB142" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -67406,11 +67393,11 @@
       <c r="AZ143" t="s">
         <v>49</v>
       </c>
-      <c r="BA143" s="28">
+      <c r="BA143" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB143" s="27" t="b">
+      <c r="BB143" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -67575,11 +67562,11 @@
       <c r="AZ144" t="s">
         <v>51</v>
       </c>
-      <c r="BA144" s="28">
+      <c r="BA144" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB144" s="27" t="b">
+      <c r="BB144" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -67744,11 +67731,11 @@
       <c r="AZ145" t="s">
         <v>51</v>
       </c>
-      <c r="BA145" s="28">
+      <c r="BA145" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB145" s="27" t="b">
+      <c r="BB145" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -67913,11 +67900,11 @@
       <c r="AZ146" t="s">
         <v>51</v>
       </c>
-      <c r="BA146" s="28">
+      <c r="BA146" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB146" s="27" t="b">
+      <c r="BB146" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -68082,11 +68069,11 @@
       <c r="AZ147" t="s">
         <v>49</v>
       </c>
-      <c r="BA147" s="28">
+      <c r="BA147" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB147" s="27" t="b">
+      <c r="BB147" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -68251,11 +68238,11 @@
       <c r="AZ148" t="s">
         <v>49</v>
       </c>
-      <c r="BA148" s="28">
+      <c r="BA148" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB148" s="27" t="b">
+      <c r="BB148" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -68420,11 +68407,11 @@
       <c r="AZ149" t="s">
         <v>49</v>
       </c>
-      <c r="BA149" s="28">
+      <c r="BA149" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB149" s="27" t="b">
+      <c r="BB149" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -68589,11 +68576,11 @@
       <c r="AZ150" t="s">
         <v>50</v>
       </c>
-      <c r="BA150" s="28">
+      <c r="BA150" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB150" s="27" t="b">
+      <c r="BB150" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -68758,11 +68745,11 @@
       <c r="AZ151" t="s">
         <v>49</v>
       </c>
-      <c r="BA151" s="28">
+      <c r="BA151" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB151" s="27" t="b">
+      <c r="BB151" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -68927,11 +68914,11 @@
       <c r="AZ152" t="s">
         <v>51</v>
       </c>
-      <c r="BA152" s="28">
+      <c r="BA152" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB152" s="27" t="b">
+      <c r="BB152" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -69096,11 +69083,11 @@
       <c r="AZ153" t="s">
         <v>51</v>
       </c>
-      <c r="BA153" s="28">
+      <c r="BA153" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB153" s="27" t="b">
+      <c r="BB153" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -69265,11 +69252,11 @@
       <c r="AZ154" t="s">
         <v>51</v>
       </c>
-      <c r="BA154" s="28">
+      <c r="BA154" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB154" s="27" t="b">
+      <c r="BB154" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -69434,11 +69421,11 @@
       <c r="AZ155" t="s">
         <v>49</v>
       </c>
-      <c r="BA155" s="28">
+      <c r="BA155" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB155" s="27" t="b">
+      <c r="BB155" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -69603,11 +69590,11 @@
       <c r="AZ156" t="s">
         <v>51</v>
       </c>
-      <c r="BA156" s="28">
+      <c r="BA156" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB156" s="27" t="b">
+      <c r="BB156" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -69772,11 +69759,11 @@
       <c r="AZ157" t="s">
         <v>51</v>
       </c>
-      <c r="BA157" s="28">
+      <c r="BA157" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB157" s="27" t="b">
+      <c r="BB157" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -69941,11 +69928,11 @@
       <c r="AZ158" t="s">
         <v>51</v>
       </c>
-      <c r="BA158" s="28">
+      <c r="BA158" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB158" s="27" t="b">
+      <c r="BB158" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -70110,11 +70097,11 @@
       <c r="AZ159" t="s">
         <v>51</v>
       </c>
-      <c r="BA159" s="28">
+      <c r="BA159" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB159" s="27" t="b">
+      <c r="BB159" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -70279,11 +70266,11 @@
       <c r="AZ160" t="s">
         <v>49</v>
       </c>
-      <c r="BA160" s="28">
+      <c r="BA160" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB160" s="27" t="b">
+      <c r="BB160" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -70448,11 +70435,11 @@
       <c r="AZ161" t="s">
         <v>51</v>
       </c>
-      <c r="BA161" s="28">
+      <c r="BA161" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB161" s="27" t="b">
+      <c r="BB161" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -70617,11 +70604,11 @@
       <c r="AZ162" t="s">
         <v>51</v>
       </c>
-      <c r="BA162" s="28">
+      <c r="BA162" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB162" s="27" t="b">
+      <c r="BB162" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -70786,11 +70773,11 @@
       <c r="AZ163" t="s">
         <v>51</v>
       </c>
-      <c r="BA163" s="28">
+      <c r="BA163" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB163" s="27" t="b">
+      <c r="BB163" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -70955,11 +70942,11 @@
       <c r="AZ164" t="s">
         <v>51</v>
       </c>
-      <c r="BA164" s="28">
+      <c r="BA164" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB164" s="27" t="b">
+      <c r="BB164" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -71124,11 +71111,11 @@
       <c r="AZ165" t="s">
         <v>50</v>
       </c>
-      <c r="BA165" s="28">
+      <c r="BA165" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB165" s="27" t="b">
+      <c r="BB165" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -71293,11 +71280,11 @@
       <c r="AZ166" t="s">
         <v>49</v>
       </c>
-      <c r="BA166" s="28">
+      <c r="BA166" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB166" s="27" t="b">
+      <c r="BB166" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -71462,11 +71449,11 @@
       <c r="AZ167" t="s">
         <v>51</v>
       </c>
-      <c r="BA167" s="28">
+      <c r="BA167" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB167" s="27" t="b">
+      <c r="BB167" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -71631,11 +71618,11 @@
       <c r="AZ168" t="s">
         <v>51</v>
       </c>
-      <c r="BA168" s="28">
+      <c r="BA168" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB168" s="27" t="b">
+      <c r="BB168" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -71800,11 +71787,11 @@
       <c r="AZ169" t="s">
         <v>51</v>
       </c>
-      <c r="BA169" s="28">
+      <c r="BA169" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB169" s="27" t="b">
+      <c r="BB169" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -71969,11 +71956,11 @@
       <c r="AZ170" t="s">
         <v>49</v>
       </c>
-      <c r="BA170" s="28">
+      <c r="BA170" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB170" s="27" t="b">
+      <c r="BB170" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -72138,11 +72125,11 @@
       <c r="AZ171" t="s">
         <v>51</v>
       </c>
-      <c r="BA171" s="28">
+      <c r="BA171" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB171" s="27" t="b">
+      <c r="BB171" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -72307,11 +72294,11 @@
       <c r="AZ172" t="s">
         <v>51</v>
       </c>
-      <c r="BA172" s="28">
+      <c r="BA172" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB172" s="27" t="b">
+      <c r="BB172" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -72476,11 +72463,11 @@
       <c r="AZ173" t="s">
         <v>51</v>
       </c>
-      <c r="BA173" s="28">
+      <c r="BA173" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB173" s="27" t="b">
+      <c r="BB173" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -72645,11 +72632,11 @@
       <c r="AZ174" t="s">
         <v>51</v>
       </c>
-      <c r="BA174" s="28">
+      <c r="BA174" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB174" s="27" t="b">
+      <c r="BB174" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -72814,11 +72801,11 @@
       <c r="AZ175" t="s">
         <v>49</v>
       </c>
-      <c r="BA175" s="28">
+      <c r="BA175" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB175" s="27" t="b">
+      <c r="BB175" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -72983,11 +72970,11 @@
       <c r="AZ176" t="s">
         <v>49</v>
       </c>
-      <c r="BA176" s="28">
+      <c r="BA176" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB176" s="27" t="b">
+      <c r="BB176" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -73152,11 +73139,11 @@
       <c r="AZ177" t="s">
         <v>51</v>
       </c>
-      <c r="BA177" s="28">
+      <c r="BA177" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB177" s="27" t="b">
+      <c r="BB177" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -73321,11 +73308,11 @@
       <c r="AZ178" t="s">
         <v>50</v>
       </c>
-      <c r="BA178" s="28">
+      <c r="BA178" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB178" s="27" t="b">
+      <c r="BB178" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -73490,11 +73477,11 @@
       <c r="AZ179" t="s">
         <v>51</v>
       </c>
-      <c r="BA179" s="28">
+      <c r="BA179" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB179" s="27" t="b">
+      <c r="BB179" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -73659,11 +73646,11 @@
       <c r="AZ180" t="s">
         <v>51</v>
       </c>
-      <c r="BA180" s="28">
+      <c r="BA180" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB180" s="27" t="b">
+      <c r="BB180" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -73828,11 +73815,11 @@
       <c r="AZ181" t="s">
         <v>49</v>
       </c>
-      <c r="BA181" s="28">
+      <c r="BA181" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB181" s="27" t="b">
+      <c r="BB181" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -73997,11 +73984,11 @@
       <c r="AZ182" t="s">
         <v>51</v>
       </c>
-      <c r="BA182" s="28">
+      <c r="BA182" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB182" s="27" t="b">
+      <c r="BB182" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -74166,11 +74153,11 @@
       <c r="AZ183" t="s">
         <v>51</v>
       </c>
-      <c r="BA183" s="28">
+      <c r="BA183" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB183" s="27" t="b">
+      <c r="BB183" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -74335,11 +74322,11 @@
       <c r="AZ184" t="s">
         <v>51</v>
       </c>
-      <c r="BA184" s="28">
+      <c r="BA184" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB184" s="27" t="b">
+      <c r="BB184" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -74504,11 +74491,11 @@
       <c r="AZ185" t="s">
         <v>51</v>
       </c>
-      <c r="BA185" s="28">
+      <c r="BA185" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB185" s="27" t="b">
+      <c r="BB185" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -74673,11 +74660,11 @@
       <c r="AZ186" t="s">
         <v>51</v>
       </c>
-      <c r="BA186" s="28">
+      <c r="BA186" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB186" s="27" t="b">
+      <c r="BB186" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -74842,11 +74829,11 @@
       <c r="AZ187" t="s">
         <v>51</v>
       </c>
-      <c r="BA187" s="28">
+      <c r="BA187" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB187" s="27" t="b">
+      <c r="BB187" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -75011,11 +74998,11 @@
       <c r="AZ188" t="s">
         <v>51</v>
       </c>
-      <c r="BA188" s="28">
+      <c r="BA188" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB188" s="27" t="b">
+      <c r="BB188" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -75180,11 +75167,11 @@
       <c r="AZ189" t="s">
         <v>49</v>
       </c>
-      <c r="BA189" s="28">
+      <c r="BA189" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB189" s="27" t="b">
+      <c r="BB189" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -75349,11 +75336,11 @@
       <c r="AZ190" t="s">
         <v>51</v>
       </c>
-      <c r="BA190" s="28">
+      <c r="BA190" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB190" s="27" t="b">
+      <c r="BB190" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -75518,11 +75505,11 @@
       <c r="AZ191" t="s">
         <v>49</v>
       </c>
-      <c r="BA191" s="28">
+      <c r="BA191" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB191" s="27" t="b">
+      <c r="BB191" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -75687,11 +75674,11 @@
       <c r="AZ192" t="s">
         <v>51</v>
       </c>
-      <c r="BA192" s="28">
+      <c r="BA192" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB192" s="27" t="b">
+      <c r="BB192" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -75856,11 +75843,11 @@
       <c r="AZ193" t="s">
         <v>49</v>
       </c>
-      <c r="BA193" s="28">
+      <c r="BA193" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB193" s="27" t="b">
+      <c r="BB193" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -76025,11 +76012,11 @@
       <c r="AZ194" t="s">
         <v>49</v>
       </c>
-      <c r="BA194" s="28">
+      <c r="BA194" s="27">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="BB194" s="27" t="b">
+      <c r="BB194" s="26" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -76194,11 +76181,11 @@
       <c r="AZ195" t="s">
         <v>49</v>
       </c>
-      <c r="BA195" s="28">
+      <c r="BA195" s="27">
         <f t="shared" ref="BA195:BA201" si="18">COUNT(B195:N195,O195:R195,S195,T195:W195,X195,Y195:AB195,AC195,AD195:AG195,AH195,AI195:AL195,AM195,AN195:AQ195,AR195,AS195:AZ195)</f>
         <v>21</v>
       </c>
-      <c r="BB195" s="27" t="b">
+      <c r="BB195" s="26" t="b">
         <f t="shared" ref="BB195:BB201" si="19">IF(BA195=21,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -76363,11 +76350,11 @@
       <c r="AZ196" t="s">
         <v>51</v>
       </c>
-      <c r="BA196" s="28">
+      <c r="BA196" s="27">
         <f t="shared" si="18"/>
         <v>21</v>
       </c>
-      <c r="BB196" s="27" t="b">
+      <c r="BB196" s="26" t="b">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
@@ -76532,11 +76519,11 @@
       <c r="AZ197" t="s">
         <v>49</v>
       </c>
-      <c r="BA197" s="28">
+      <c r="BA197" s="27">
         <f t="shared" si="18"/>
         <v>21</v>
       </c>
-      <c r="BB197" s="27" t="b">
+      <c r="BB197" s="26" t="b">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
@@ -76701,11 +76688,11 @@
       <c r="AZ198" t="s">
         <v>50</v>
       </c>
-      <c r="BA198" s="28">
+      <c r="BA198" s="27">
         <f t="shared" si="18"/>
         <v>21</v>
       </c>
-      <c r="BB198" s="27" t="b">
+      <c r="BB198" s="26" t="b">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
@@ -76870,11 +76857,11 @@
       <c r="AZ199" t="s">
         <v>51</v>
       </c>
-      <c r="BA199" s="28">
+      <c r="BA199" s="27">
         <f t="shared" si="18"/>
         <v>21</v>
       </c>
-      <c r="BB199" s="27" t="b">
+      <c r="BB199" s="26" t="b">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
@@ -77039,11 +77026,11 @@
       <c r="AZ200" t="s">
         <v>51</v>
       </c>
-      <c r="BA200" s="28">
+      <c r="BA200" s="27">
         <f t="shared" si="18"/>
         <v>21</v>
       </c>
-      <c r="BB200" s="27" t="b">
+      <c r="BB200" s="26" t="b">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
@@ -77208,11 +77195,11 @@
       <c r="AZ201" t="s">
         <v>49</v>
       </c>
-      <c r="BA201" s="28">
+      <c r="BA201" s="27">
         <f t="shared" si="18"/>
         <v>21</v>
       </c>
-      <c r="BB201" s="27" t="b">
+      <c r="BB201" s="26" t="b">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
@@ -77229,12 +77216,12 @@
   <dimension ref="A2:X296"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="23"/>
+    <col min="1" max="1" width="8.88671875" style="22"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" customWidth="1"/>
@@ -77244,11 +77231,11 @@
     <col min="10" max="10" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+    <row r="2" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>100</v>
       </c>
     </row>
@@ -77257,11 +77244,11 @@
       <c r="B4" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="63">
         <f>COUNT('Data - With Notes'!A2:A201)</f>
         <v>200</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="23" t="s">
         <v>144</v>
       </c>
     </row>
@@ -77285,7 +77272,7 @@
       <c r="C7" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="23" t="s">
         <v>125</v>
       </c>
     </row>
@@ -77364,8 +77351,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="26" t="s">
-        <v>185</v>
+      <c r="B15" s="25" t="s">
+        <v>184</v>
       </c>
       <c r="J15" t="s">
         <v>143</v>
@@ -77378,7 +77365,7 @@
       <c r="B16" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>21</v>
       </c>
     </row>
@@ -77386,13 +77373,13 @@
       <c r="B17" t="s">
         <v>150</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="25" t="s">
         <v>109</v>
       </c>
     </row>
@@ -77405,8 +77392,8 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="26" t="s">
-        <v>179</v>
+      <c r="B19" s="25" t="s">
+        <v>178</v>
       </c>
       <c r="J19" t="s">
         <v>2</v>
@@ -77435,61 +77422,61 @@
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C22" s="35"/>
-      <c r="D22" s="35" t="s">
+      <c r="C22" s="34"/>
+      <c r="D22" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="34" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="34">
         <f>COUNT('Data - With Notes'!O2:O201)</f>
         <v>42</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="34">
         <f>COUNT('Data - With Notes'!P2:P201)</f>
         <v>52</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="34">
         <f>COUNT('Data - With Notes'!Q2:Q201)</f>
         <v>59</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="34">
         <f>COUNT('Data - With Notes'!R2:R201)</f>
         <v>47</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="24" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="34">
         <f>COUNT('Data - With Notes'!T2:T201)</f>
         <v>42</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="34">
         <f>COUNT('Data - With Notes'!U2:U201)</f>
         <v>52</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="34">
         <f>COUNT('Data - With Notes'!V2:V201)</f>
         <v>59</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="34">
         <f>COUNT('Data - With Notes'!W2:W201)</f>
         <v>47</v>
       </c>
@@ -77499,27 +77486,27 @@
       <c r="K24" t="s">
         <v>108</v>
       </c>
-      <c r="P24" s="20" t="s">
+      <c r="P24" s="19" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="34">
         <f>COUNT('Data - With Notes'!Y2:Y201)</f>
         <v>42</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="34">
         <f>COUNT('Data - With Notes'!Z2:Z201)</f>
         <v>52</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="34">
         <f>COUNT('Data - With Notes'!AA2:AA201)</f>
         <v>59</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25" s="34">
         <f>COUNT('Data - With Notes'!AB2:AB201)</f>
         <v>47</v>
       </c>
@@ -77537,22 +77524,22 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="34">
         <f>COUNT('Data - With Notes'!AD2:AD201)</f>
         <v>42</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="34">
         <f>COUNT('Data - With Notes'!AE2:AE201)</f>
         <v>52</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F26" s="34">
         <f>COUNT('Data - With Notes'!AF2:AF201)</f>
         <v>59</v>
       </c>
-      <c r="G26" s="35">
+      <c r="G26" s="34">
         <f>COUNT('Data - With Notes'!AG2:AG201)</f>
         <v>47</v>
       </c>
@@ -77567,22 +77554,22 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="34">
         <f>COUNT('Data - With Notes'!AI2:AI201)</f>
         <v>42</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="34">
         <f>COUNT('Data - With Notes'!AJ2:AJ201)</f>
         <v>51</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="34">
         <f>COUNT('Data - With Notes'!AK2:AK201)</f>
         <v>60</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="34">
         <f>COUNT('Data - With Notes'!AL2:AL201)</f>
         <v>47</v>
       </c>
@@ -77597,22 +77584,22 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="34">
         <f>COUNT('Data - With Notes'!AN2:AN201)</f>
         <v>42</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="34">
         <f>COUNT('Data - With Notes'!AO2:AO201)</f>
         <v>52</v>
       </c>
-      <c r="F28" s="35">
+      <c r="F28" s="34">
         <f>COUNT('Data - With Notes'!AP2:AP201)</f>
         <v>59</v>
       </c>
-      <c r="G28" s="35">
+      <c r="G28" s="34">
         <f>COUNT('Data - With Notes'!AQ2:AQ201)</f>
         <v>47</v>
       </c>
@@ -77642,7 +77629,7 @@
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -77672,214 +77659,214 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="D32" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="E32" s="58" t="s">
-        <v>181</v>
-      </c>
-      <c r="F32" s="57"/>
+      <c r="E32" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="F32" s="56"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="34">
         <f>D23</f>
         <v>42</v>
       </c>
-      <c r="E33" s="59">
+      <c r="E33" s="58">
         <f>D33/$D$4</f>
         <v>0.21</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="34">
         <f>E23</f>
         <v>52</v>
       </c>
-      <c r="E34" s="59">
+      <c r="E34" s="58">
         <f t="shared" ref="E34:E36" si="0">D34/$D$4</f>
         <v>0.26</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="34">
         <f>F23</f>
         <v>59</v>
       </c>
-      <c r="E35" s="59">
+      <c r="E35" s="58">
         <f t="shared" si="0"/>
         <v>0.29499999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="62" t="s">
+      <c r="C36" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="D36" s="62">
+      <c r="D36" s="61">
         <f>G23</f>
         <v>47</v>
       </c>
-      <c r="E36" s="63">
+      <c r="E36" s="62">
         <f t="shared" si="0"/>
         <v>0.23499999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="D37" s="60">
+      <c r="C37" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="59">
         <f>SUM(D33:D36)</f>
         <v>200</v>
       </c>
-      <c r="E37" s="61">
+      <c r="E37" s="60">
         <f>SUM(E33:E36)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22">
-        <v>1</v>
-      </c>
-      <c r="B39" s="21" t="s">
+    <row r="39" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21">
+        <v>1</v>
+      </c>
+      <c r="B39" s="20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C43" s="39"/>
-      <c r="D43" s="37" t="s">
+      <c r="C43" s="38"/>
+      <c r="D43" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="39" t="s">
+      <c r="E43" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F43" s="39" t="s">
+      <c r="F43" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="G43" s="39" t="s">
+      <c r="G43" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="H43" s="39" t="s">
+      <c r="H43" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="I43" s="39" t="s">
+      <c r="I43" s="38" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="D44" s="43">
+      <c r="D44" s="42">
         <f>AVERAGE(coffee_all)</f>
         <v>9.6476499999999934</v>
       </c>
-      <c r="E44" s="43">
+      <c r="E44" s="42">
         <f>AVERAGE(tshirt_all)</f>
         <v>31.924800000000001</v>
       </c>
-      <c r="F44" s="43">
+      <c r="F44" s="42">
         <f>AVERAGE(shampoo_all)</f>
         <v>3.6773499999999988</v>
       </c>
-      <c r="G44" s="43">
+      <c r="G44" s="42">
         <f>AVERAGE(detergent_all)</f>
         <v>6.7581999999999987</v>
       </c>
-      <c r="H44" s="43">
+      <c r="H44" s="42">
         <f>AVERAGE(juice_all)</f>
         <v>2.9847499999999996</v>
       </c>
-      <c r="I44" s="43">
+      <c r="I44" s="42">
         <f>AVERAGE(cleaner_all)</f>
         <v>3.9774000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="43">
+      <c r="D45" s="42">
         <f>MEDIAN(coffee_all)</f>
         <v>9.4600000000000009</v>
       </c>
-      <c r="E45" s="43">
+      <c r="E45" s="42">
         <f>MEDIAN(tshirt_all)</f>
         <v>31.945</v>
       </c>
-      <c r="F45" s="43">
+      <c r="F45" s="42">
         <f>MEDIAN(shampoo_all)</f>
         <v>3.625</v>
       </c>
-      <c r="G45" s="43">
+      <c r="G45" s="42">
         <f>MEDIAN(detergent_all)</f>
         <v>6.75</v>
       </c>
-      <c r="H45" s="43">
+      <c r="H45" s="42">
         <f>MEDIAN(juice_all)</f>
         <v>3.0149999999999997</v>
       </c>
-      <c r="I45" s="43">
+      <c r="I45" s="42">
         <f>MEDIAN(cleaner_all)</f>
         <v>4.08</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="D46" s="43">
+      <c r="D46" s="42">
         <f>_xlfn.STDEV.S(coffee_all)</f>
         <v>3.57198788699294</v>
       </c>
-      <c r="E46" s="43">
+      <c r="E46" s="42">
         <f>_xlfn.STDEV.S(tshirt_all)</f>
         <v>8.0180679736548885</v>
       </c>
-      <c r="F46" s="43">
+      <c r="F46" s="42">
         <f>_xlfn.STDEV.S(shampoo_all)</f>
         <v>1.4560714949797162</v>
       </c>
-      <c r="G46" s="43">
+      <c r="G46" s="42">
         <f>_xlfn.STDEV.S(detergent_all)</f>
         <v>1.7851106014184359</v>
       </c>
-      <c r="H46" s="43">
+      <c r="H46" s="42">
         <f>_xlfn.STDEV.S(juice_all)</f>
         <v>1.247649020313587</v>
       </c>
-      <c r="I46" s="43">
+      <c r="I46" s="42">
         <f>_xlfn.STDEV.S(cleaner_all)</f>
         <v>1.645755081701016</v>
       </c>
-      <c r="J46" s="47"/>
+      <c r="J46" s="46"/>
     </row>
     <row r="47" spans="1:17" s="11" customFormat="1" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="48"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="50"/>
+      <c r="A47" s="47"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="49"/>
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
@@ -77889,35 +77876,35 @@
       <c r="Q47"/>
     </row>
     <row r="48" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="48"/>
-      <c r="C48" s="39" t="s">
+      <c r="A48" s="47"/>
+      <c r="C48" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="D48" s="52">
+      <c r="D48" s="51">
         <f>_xlfn.Z.TEST(coffee_all,D45)</f>
         <v>0.22875908242949597</v>
       </c>
-      <c r="E48" s="53">
+      <c r="E48" s="52">
         <f>_xlfn.Z.TEST(tshirt_all,E45)</f>
         <v>0.51421067888949512</v>
       </c>
-      <c r="F48" s="53">
+      <c r="F48" s="52">
         <f>_xlfn.Z.TEST(shampoo_all,F45)</f>
         <v>0.30556859721047402</v>
       </c>
-      <c r="G48" s="53">
+      <c r="G48" s="52">
         <f>_xlfn.Z.TEST(detergent_all,G45)</f>
         <v>0.47410186988686842</v>
       </c>
-      <c r="H48" s="53">
+      <c r="H48" s="52">
         <f>_xlfn.Z.TEST(juice_all,H45)</f>
         <v>0.63415735132425821</v>
       </c>
-      <c r="I48" s="53">
+      <c r="I48" s="52">
         <f>_xlfn.Z.TEST(cleaner_all,I45)</f>
         <v>0.8110174634895575</v>
       </c>
-      <c r="J48" s="25" t="s">
+      <c r="J48" s="24" t="s">
         <v>171</v>
       </c>
       <c r="K48"/>
@@ -77929,123 +77916,123 @@
       <c r="Q48"/>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="C50" s="41"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C51" s="41"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
     </row>
     <row r="52" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>166</v>
       </c>
-      <c r="C52" s="41"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="I52" s="42"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="I52" s="41"/>
     </row>
     <row r="53" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C53" s="41"/>
-      <c r="D53" s="42" t="s">
+      <c r="C53" s="40"/>
+      <c r="D53" s="41" t="s">
         <v>172</v>
       </c>
       <c r="E53" t="s">
+        <v>174</v>
+      </c>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="81" t="s">
-        <v>176</v>
-      </c>
-      <c r="J53" s="82"/>
+      <c r="J53" s="105"/>
     </row>
     <row r="54" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C54" s="46"/>
-      <c r="F54" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
+      <c r="C54" s="45"/>
+      <c r="F54" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
     </row>
     <row r="55" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C55" s="41"/>
-      <c r="D55" s="42" t="s">
+      <c r="C55" s="40"/>
+      <c r="D55" s="41" t="s">
         <v>173</v>
       </c>
       <c r="E55" t="s">
-        <v>178</v>
-      </c>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="J55" s="80"/>
-      <c r="M55" s="49"/>
+      <c r="J55" s="107"/>
+      <c r="M55" s="48"/>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C56" s="41"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C57" s="41"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
       <c r="X57" s="11"/>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C58" s="41"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C59" s="41"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B105" s="44" t="s">
+      <c r="B105" s="43" t="s">
         <v>167</v>
       </c>
     </row>
@@ -78055,1771 +78042,1771 @@
         <v>166</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
-      </c>
-      <c r="J107" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="J107" s="44" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="22">
+    <row r="109" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="21">
         <v>2</v>
       </c>
-      <c r="B109" s="21" t="s">
-        <v>190</v>
+      <c r="B109" s="20" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B111" s="24" t="s">
-        <v>189</v>
+      <c r="B111" s="23" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B113" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="C113" s="72" t="s">
+      <c r="B113" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="C113" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="D113" s="73"/>
-      <c r="E113" s="72" t="s">
+      <c r="D113" s="109"/>
+      <c r="E113" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="F113" s="73"/>
-      <c r="G113" s="72" t="s">
+      <c r="F113" s="109"/>
+      <c r="G113" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="H113" s="73"/>
-      <c r="I113" s="72" t="s">
+      <c r="H113" s="109"/>
+      <c r="I113" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="J113" s="73"/>
-      <c r="K113" s="72" t="s">
+      <c r="J113" s="109"/>
+      <c r="K113" s="108" t="s">
         <v>156</v>
       </c>
-      <c r="L113" s="73"/>
-      <c r="M113" s="72" t="s">
+      <c r="L113" s="109"/>
+      <c r="M113" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="N113" s="73"/>
+      <c r="N113" s="109"/>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B114" s="71"/>
-      <c r="C114" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="D114" s="66" t="s">
+      <c r="B114" s="69"/>
+      <c r="C114" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="E114" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="F114" s="66" t="s">
+      <c r="D114" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="E114" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="G114" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="H114" s="66" t="s">
+      <c r="F114" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="G114" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="I114" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="J114" s="66" t="s">
+      <c r="H114" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="I114" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="K114" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="L114" s="66" t="s">
+      <c r="J114" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="K114" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="M114" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="N114" s="66" t="s">
+      <c r="L114" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="M114" s="64" t="s">
         <v>187</v>
+      </c>
+      <c r="N114" s="64" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B115" s="67" t="s">
+      <c r="B115" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="C115" s="38">
+      <c r="C115" s="37">
         <f>AVERAGE(coffee_g1)</f>
         <v>9.7469047619047622</v>
       </c>
-      <c r="D115" s="68">
+      <c r="D115" s="66">
         <f>_xlfn.RANK.EQ(C115,$C$115:$C$118,1)</f>
         <v>3</v>
       </c>
-      <c r="E115" s="38">
+      <c r="E115" s="37">
         <f>AVERAGE(tshirt_g1)</f>
         <v>33.406666666666673</v>
       </c>
-      <c r="F115" s="68">
+      <c r="F115" s="66">
         <f>_xlfn.RANK.EQ(E115,$E$115:$E$118,1)</f>
         <v>4</v>
       </c>
-      <c r="G115" s="38">
+      <c r="G115" s="37">
         <f>AVERAGE(shampoo_g1)</f>
         <v>3.3123809523809524</v>
       </c>
-      <c r="H115" s="68">
+      <c r="H115" s="66">
         <f>_xlfn.RANK.EQ(G115,$G$115:$G$118,1)</f>
         <v>1</v>
       </c>
-      <c r="I115" s="38">
+      <c r="I115" s="37">
         <f>AVERAGE(detergent_g1)</f>
         <v>8.2176190476190456</v>
       </c>
-      <c r="J115" s="68">
+      <c r="J115" s="66">
         <f>_xlfn.RANK.EQ(I115,$I$115:$I$118,1)</f>
         <v>4</v>
       </c>
-      <c r="K115" s="38">
+      <c r="K115" s="37">
         <f>AVERAGE(juice_g1)</f>
         <v>1.980952380952381</v>
       </c>
-      <c r="L115" s="68">
+      <c r="L115" s="66">
         <f>_xlfn.RANK.EQ(K115,$K$115:$K$118,1)</f>
         <v>1</v>
       </c>
-      <c r="M115" s="38">
+      <c r="M115" s="37">
         <f>AVERAGE(cleaner_g1)</f>
         <v>4.0014285714285727</v>
       </c>
-      <c r="N115" s="68">
+      <c r="N115" s="66">
         <f>_xlfn.RANK.EQ(M115,$M$115:$M$118,1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B116" s="67" t="s">
+      <c r="B116" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="C116" s="38">
+      <c r="C116" s="37">
         <f>AVERAGE(coffee_g2)</f>
         <v>9.3138461538461552</v>
       </c>
-      <c r="D116" s="68">
+      <c r="D116" s="66">
         <f>_xlfn.RANK.EQ(C116,$C$115:$C$118,1)</f>
         <v>2</v>
       </c>
-      <c r="E116" s="38">
+      <c r="E116" s="37">
         <f>AVERAGE(tshirt_g2)</f>
         <v>32.115769230769224</v>
       </c>
-      <c r="F116" s="68">
+      <c r="F116" s="66">
         <f>_xlfn.RANK.EQ(E116,$E$115:$E$118,1)</f>
         <v>3</v>
       </c>
-      <c r="G116" s="77">
+      <c r="G116" s="73">
         <f>AVERAGE(shampoo_g2)</f>
         <v>4.0032692307692317</v>
       </c>
-      <c r="H116" s="68">
+      <c r="H116" s="66">
         <f>_xlfn.RANK.EQ(G116,$G$115:$G$118,1)</f>
         <v>4</v>
       </c>
-      <c r="I116" s="38">
+      <c r="I116" s="37">
         <f>AVERAGE(detergent_g2)</f>
         <v>6.9363461538461539</v>
       </c>
-      <c r="J116" s="68">
+      <c r="J116" s="66">
         <f>_xlfn.RANK.EQ(I116,$I$115:$I$118,1)</f>
         <v>3</v>
       </c>
-      <c r="K116" s="38">
+      <c r="K116" s="37">
         <f>AVERAGE(juice_g2)</f>
         <v>3.9782352941176455</v>
       </c>
-      <c r="L116" s="68">
+      <c r="L116" s="66">
         <f>_xlfn.RANK.EQ(K116,$K$115:$K$118,1)</f>
         <v>4</v>
       </c>
-      <c r="M116" s="38">
+      <c r="M116" s="37">
         <f>AVERAGE(cleaner_g2)</f>
         <v>2.4609615384615386</v>
       </c>
-      <c r="N116" s="68">
+      <c r="N116" s="66">
         <f>_xlfn.RANK.EQ(M116,$M$115:$M$118,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B117" s="67" t="s">
+      <c r="B117" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="C117" s="77">
+      <c r="C117" s="73">
         <f>AVERAGE(coffee_g3)</f>
         <v>8.9884745762711873</v>
       </c>
-      <c r="D117" s="68">
+      <c r="D117" s="66">
         <f>_xlfn.RANK.EQ(C117,$C$115:$C$118,1)</f>
         <v>1</v>
       </c>
-      <c r="E117" s="38">
+      <c r="E117" s="37">
         <f>AVERAGE(tshirt_g3)</f>
         <v>31.28508474576271</v>
       </c>
-      <c r="F117" s="68">
+      <c r="F117" s="66">
         <f>_xlfn.RANK.EQ(E117,$E$115:$E$118,1)</f>
         <v>2</v>
       </c>
-      <c r="G117" s="38">
+      <c r="G117" s="37">
         <f>AVERAGE(shampoo_g3)</f>
         <v>3.6345762711864404</v>
       </c>
-      <c r="H117" s="68">
+      <c r="H117" s="66">
         <f>_xlfn.RANK.EQ(G117,$G$115:$G$118,1)</f>
         <v>2</v>
       </c>
-      <c r="I117" s="38">
+      <c r="I117" s="37">
         <f>AVERAGE(detergent_g3)</f>
         <v>6.5244067796610166</v>
       </c>
-      <c r="J117" s="68">
+      <c r="J117" s="66">
         <f>_xlfn.RANK.EQ(I117,$I$115:$I$118,1)</f>
         <v>2</v>
       </c>
-      <c r="K117" s="38">
+      <c r="K117" s="37">
         <f>AVERAGE(juice_g3)</f>
         <v>3.130666666666666</v>
       </c>
-      <c r="L117" s="68">
+      <c r="L117" s="66">
         <f>_xlfn.RANK.EQ(K117,$K$115:$K$118,1)</f>
         <v>3</v>
       </c>
-      <c r="M117" s="38">
+      <c r="M117" s="37">
         <f>AVERAGE(cleaner_g3)</f>
         <v>5.1528813559322026</v>
       </c>
-      <c r="N117" s="68">
+      <c r="N117" s="66">
         <f>_xlfn.RANK.EQ(M117,$M$115:$M$118,1)</f>
         <v>4</v>
       </c>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B118" s="67" t="s">
+      <c r="B118" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="C118" s="38">
+      <c r="C118" s="37">
         <f>AVERAGE(coffee_g4)</f>
         <v>10.755744680851066</v>
       </c>
-      <c r="D118" s="68">
+      <c r="D118" s="66">
         <f>_xlfn.RANK.EQ(C118,$C$115:$C$118,1)</f>
         <v>4</v>
       </c>
-      <c r="E118" s="77">
+      <c r="E118" s="73">
         <f>AVERAGE(tshirt_g4)</f>
         <v>31.192340425531903</v>
       </c>
-      <c r="F118" s="68">
+      <c r="F118" s="66">
         <f>_xlfn.RANK.EQ(E118,$E$115:$E$118,1)</f>
         <v>1</v>
       </c>
-      <c r="G118" s="38">
+      <c r="G118" s="37">
         <f>AVERAGE(shampoo_g3)</f>
         <v>3.6345762711864404</v>
       </c>
-      <c r="H118" s="68">
+      <c r="H118" s="66">
         <f>_xlfn.RANK.EQ(G118,$G$115:$G$118,1)</f>
         <v>2</v>
       </c>
-      <c r="I118" s="38">
+      <c r="I118" s="37">
         <f>AVERAGE(detergent_g4)</f>
         <v>5.5504255319148941</v>
       </c>
-      <c r="J118" s="68">
+      <c r="J118" s="66">
         <f>_xlfn.RANK.EQ(I118,$I$115:$I$118,1)</f>
         <v>1</v>
       </c>
-      <c r="K118" s="38">
+      <c r="K118" s="37">
         <f>AVERAGE(juice_g4)</f>
         <v>2.6174468085106377</v>
       </c>
-      <c r="L118" s="68">
+      <c r="L118" s="66">
         <f>_xlfn.RANK.EQ(K118,$K$115:$K$118,1)</f>
         <v>2</v>
       </c>
-      <c r="M118" s="38">
+      <c r="M118" s="37">
         <f>AVERAGE(cleaner_g4)</f>
         <v>4.1580851063829787</v>
       </c>
-      <c r="N118" s="68">
+      <c r="N118" s="66">
         <f>_xlfn.RANK.EQ(M118,$M$115:$M$118,1)</f>
         <v>3</v>
       </c>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="K119" s="36"/>
+      <c r="K119" s="35"/>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B120" s="24" t="s">
-        <v>95</v>
+      <c r="B120" s="23" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B121" s="24"/>
+      <c r="B121" s="23"/>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B122" s="67"/>
-      <c r="C122" s="69" t="s">
+      <c r="B122" s="65"/>
+      <c r="C122" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="D122" s="103" t="s">
         <v>194</v>
       </c>
-      <c r="D122" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="E122" s="65"/>
-      <c r="F122" s="65"/>
-      <c r="G122" s="56"/>
+      <c r="E122" s="103"/>
+      <c r="F122" s="103"/>
+      <c r="G122" s="55"/>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B123" s="69" t="s">
+      <c r="B123" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="C123" s="67" t="s">
+      <c r="C123" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="D123" s="69" t="s">
+      <c r="D123" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="E123" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="F123" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="H123" s="24" t="s">
         <v>201</v>
-      </c>
-      <c r="E123" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="F123" s="69" t="s">
-        <v>200</v>
-      </c>
-      <c r="H123" s="25" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B124" s="69" t="s">
+      <c r="B124" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="C124" s="76">
+      <c r="C124" s="72">
         <v>5</v>
       </c>
-      <c r="D124" s="75" t="s">
+      <c r="D124" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="E124" s="74">
+      <c r="E124" s="70">
         <f>INDEX(D115:D118,MATCH(D124,$B$115:$B$118))</f>
         <v>1</v>
       </c>
-      <c r="F124" s="78" t="str">
-        <f>VLOOKUP(E124,$H$124:$I$128,2)</f>
+      <c r="F124" s="74" t="str">
+        <f t="shared" ref="F124:F129" si="1">VLOOKUP(E124,$H$124:$I$128,2)</f>
         <v>low</v>
       </c>
-      <c r="H124" s="67" t="s">
-        <v>187</v>
-      </c>
-      <c r="I124" s="67" t="s">
-        <v>200</v>
+      <c r="H124" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="I124" s="65" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B125" s="69" t="s">
+      <c r="B125" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="C125" s="76">
+      <c r="C125" s="72">
         <v>10</v>
       </c>
-      <c r="D125" s="75" t="s">
+      <c r="D125" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="E125" s="74">
+      <c r="E125" s="70">
         <f>INDEX(F115:F118,MATCH(D125,$B$115:$B$118))</f>
         <v>1</v>
       </c>
-      <c r="F125" s="78" t="str">
-        <f>VLOOKUP(E125,$H$124:$I$128,2)</f>
+      <c r="F125" s="74" t="str">
+        <f t="shared" si="1"/>
         <v>low</v>
       </c>
-      <c r="H125" s="35">
-        <v>1</v>
-      </c>
-      <c r="I125" s="35" t="s">
-        <v>196</v>
+      <c r="H125" s="34">
+        <v>1</v>
+      </c>
+      <c r="I125" s="34" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B126" s="69" t="s">
+      <c r="B126" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="C126" s="76">
+      <c r="C126" s="72">
         <v>5</v>
       </c>
-      <c r="D126" s="75" t="s">
+      <c r="D126" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="E126" s="74">
+      <c r="E126" s="70">
         <f>INDEX(H115:H118,MATCH(D126,$B$115:$B$118))</f>
         <v>4</v>
       </c>
-      <c r="F126" s="78" t="str">
-        <f>VLOOKUP(E126,$H$124:$I$128,2)</f>
+      <c r="F126" s="74" t="str">
+        <f t="shared" si="1"/>
         <v>high</v>
       </c>
-      <c r="H126" s="35">
+      <c r="H126" s="34">
         <v>2</v>
       </c>
-      <c r="I126" s="35" t="s">
-        <v>197</v>
+      <c r="I126" s="34" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B127" s="69" t="s">
+      <c r="B127" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="C127" s="76">
+      <c r="C127" s="72">
         <v>9</v>
       </c>
-      <c r="D127" s="75" t="s">
+      <c r="D127" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="E127" s="74">
+      <c r="E127" s="70">
         <f>INDEX(J115:J118,MATCH(D127,$B$115:$B$118))</f>
         <v>4</v>
       </c>
-      <c r="F127" s="78" t="str">
-        <f>VLOOKUP(E127,$H$124:$I$128,2)</f>
+      <c r="F127" s="74" t="str">
+        <f t="shared" si="1"/>
         <v>high</v>
       </c>
-      <c r="H127" s="35">
+      <c r="H127" s="34">
         <v>3</v>
       </c>
-      <c r="I127" s="35" t="s">
-        <v>198</v>
+      <c r="I127" s="34" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B128" s="69" t="s">
+      <c r="B128" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="C128" s="76">
+      <c r="C128" s="72">
         <v>6</v>
       </c>
-      <c r="D128" s="75" t="s">
+      <c r="D128" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="E128" s="74">
+      <c r="E128" s="70">
         <f>INDEX(L115:L118,MATCH(D128,$B$115:$B$118))</f>
         <v>4</v>
       </c>
-      <c r="F128" s="78" t="str">
-        <f>VLOOKUP(E128,$H$124:$I$128,2)</f>
+      <c r="F128" s="74" t="str">
+        <f t="shared" si="1"/>
         <v>high</v>
       </c>
-      <c r="H128" s="35">
+      <c r="H128" s="34">
         <v>4</v>
       </c>
-      <c r="I128" s="35" t="s">
-        <v>199</v>
+      <c r="I128" s="34" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B129" s="69" t="s">
+      <c r="B129" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="C129" s="76">
+      <c r="C129" s="72">
         <v>4</v>
       </c>
-      <c r="D129" s="75" t="s">
+      <c r="D129" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="E129" s="74">
+      <c r="E129" s="70">
         <f>INDEX(N115:N118,MATCH(D129,$B$115:$B$118))</f>
         <v>2</v>
       </c>
-      <c r="F129" s="78" t="str">
-        <f>VLOOKUP(E129,$H$124:$I$128,2)</f>
+      <c r="F129" s="74" t="str">
+        <f t="shared" si="1"/>
         <v>low-mid</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="22">
+    <row r="131" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="21">
         <v>3</v>
       </c>
-      <c r="B131" s="21" t="s">
-        <v>209</v>
+      <c r="B131" s="20" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B133" s="85" t="s">
-        <v>214</v>
+      <c r="B133" s="77" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C135" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="D135" s="38">
+      <c r="C135" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="D135" s="37">
         <f>Claim!$C$8</f>
         <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C136" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="D136" s="39" t="str">
+      <c r="C136" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="D136" s="38" t="str">
         <f>"mu = "&amp;D135</f>
         <v>mu = 15</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C137" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="D137" s="39" t="str">
+      <c r="C137" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D137" s="38" t="str">
         <f>"mu &lt;&gt; "&amp;D135</f>
         <v>mu &lt;&gt; 15</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C138" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="D138" s="40">
+      <c r="C138" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="D138" s="39">
         <f>AVERAGE(tshirt_all)</f>
         <v>31.924800000000001</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C139" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="D139" s="35">
+      <c r="C139" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="D139" s="34">
         <f>COUNTA(tshirt_all)</f>
         <v>200</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C140" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="D140" s="38">
+      <c r="C140" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="D140" s="37">
         <f>_xlfn.STDEV.S(tshirt_all)</f>
         <v>8.0180679736548885</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C141" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="D141" s="93">
+      <c r="C141" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="D141" s="84">
         <f>D140/SQRT(D139)</f>
         <v>0.56696302361860518</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C142" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="D142" s="92">
+      <c r="C142" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="D142" s="83">
         <v>0.9</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C143" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="D143" s="92">
+      <c r="C143" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D143" s="83">
         <f>1-D142</f>
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C144" s="94" t="s">
-        <v>215</v>
-      </c>
-      <c r="D144" s="96"/>
+      <c r="C144" s="85" t="s">
+        <v>214</v>
+      </c>
+      <c r="D144" s="87"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C145" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="D145" s="97">
+      <c r="C145" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="D145" s="88">
         <f>_xlfn.NORM.INV((D143/2),D138,D141)</f>
         <v>30.992228814253565</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C146" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="D146" s="97">
+      <c r="C146" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D146" s="88">
         <f>_xlfn.NORM.INV((1-(D143/2)),D138,D141)</f>
         <v>32.857371185746437</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C147" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="D147" s="98" t="b">
+      <c r="C147" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="D147" s="89" t="b">
         <f>IF(D135&lt;D145,FALSE,IF(D135&gt;D146,FALSE,TRUE))</f>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C148" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="D148" s="91" t="str">
+      <c r="C148" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D148" s="82" t="str">
         <f>IF(D147,"Expect: Fail to Reject Null","Expect: Reject Null")</f>
         <v>Expect: Reject Null</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C149" s="94" t="s">
-        <v>217</v>
-      </c>
-      <c r="D149" s="35"/>
+      <c r="C149" s="85" t="s">
+        <v>216</v>
+      </c>
+      <c r="D149" s="34"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C150" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="D150" s="95" t="str">
+      <c r="C150" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="D150" s="86" t="str">
         <f>IF(D138&lt;D135,"&lt;","&gt;")</f>
         <v>&gt;</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C151" s="100" t="s">
-        <v>230</v>
-      </c>
-      <c r="D151" s="39" t="str">
+      <c r="C151" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D151" s="38" t="str">
         <f>IF(D150="&lt;", "Left","Right")</f>
         <v>Right</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C152" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="D152" s="99">
+      <c r="C152" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="D152" s="90">
         <f>1-_xlfn.NORM.DIST(D138,D135,D141,TRUE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C153" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="D153" s="92">
+      <c r="C153" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="D153" s="83">
         <f>D143/2</f>
         <v>4.9999999999999989E-2</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C154" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="D154" s="35" t="b">
+      <c r="C154" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="D154" s="34" t="b">
         <f>D152&lt;D143</f>
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C155" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="D155" s="91" t="str">
+      <c r="C155" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D155" s="82" t="str">
         <f>IF(D154,"Reject Null","Fail to Reject Null")</f>
         <v>Reject Null</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D157" s="101" t="s">
+      <c r="D157" s="92" t="s">
+        <v>233</v>
+      </c>
+      <c r="E157" s="24" t="s">
         <v>234</v>
-      </c>
-      <c r="E157" s="25" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B160" s="85" t="s">
+      <c r="B160" s="77" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C162" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="D162" s="40">
+      <c r="C162" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="D162" s="39">
         <f>AVERAGE(tshirt_all)</f>
         <v>31.924800000000001</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C163" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="D163" s="38">
+      <c r="C163" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="D163" s="37">
         <f>_xlfn.STDEV.S(tshirt_all)</f>
         <v>8.0180679736548885</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C164" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="D164" s="35">
+      <c r="C164" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="D164" s="34">
         <f>COUNTA(tshirt_all)</f>
         <v>200</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C165" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="D165" s="93">
+      <c r="C165" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="D165" s="84">
         <f>D163/SQRT(D164)</f>
         <v>0.56696302361860518</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C166" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="D166" s="92">
+      <c r="C166" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="D166" s="83">
         <v>0.9</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C167" s="94" t="s">
-        <v>238</v>
-      </c>
-      <c r="D167" s="35"/>
+      <c r="C167" s="85" t="s">
+        <v>237</v>
+      </c>
+      <c r="D167" s="34"/>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C168" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="D168" s="38">
+      <c r="C168" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="D168" s="37">
         <f>_xlfn.NORM.INV(((1-D166)/2),D162,D165)</f>
         <v>30.992228814253565</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C169" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="D169" s="38">
+      <c r="C169" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="D169" s="37">
         <f>_xlfn.NORM.INV(D166+(((1-D166)/2)),D162,D165)</f>
         <v>32.857371185746437</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D171" s="27" t="s">
+      <c r="D171" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="E171" s="24" t="s">
         <v>241</v>
-      </c>
-      <c r="E171" s="25" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B174" s="85" t="s">
+      <c r="B174" s="77" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C176" s="27" t="s">
+      <c r="C176" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="D176" t="s">
         <v>243</v>
-      </c>
-      <c r="D176" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="194" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="106" t="s">
-        <v>272</v>
-      </c>
-      <c r="C194" s="105"/>
-      <c r="D194" s="105"/>
-      <c r="E194" s="105"/>
-      <c r="F194" s="105"/>
-      <c r="G194" s="105"/>
-      <c r="H194" s="105"/>
-      <c r="I194" s="105"/>
-      <c r="J194" s="105"/>
-      <c r="K194" s="105"/>
-      <c r="L194" s="105"/>
-      <c r="M194" s="105"/>
-      <c r="N194" s="105"/>
-      <c r="O194" s="105"/>
-      <c r="P194" s="105"/>
-      <c r="Q194" s="105"/>
+      <c r="B194" s="95" t="s">
+        <v>271</v>
+      </c>
+      <c r="C194" s="94"/>
+      <c r="D194" s="94"/>
+      <c r="E194" s="94"/>
+      <c r="F194" s="94"/>
+      <c r="G194" s="94"/>
+      <c r="H194" s="94"/>
+      <c r="I194" s="94"/>
+      <c r="J194" s="94"/>
+      <c r="K194" s="94"/>
+      <c r="L194" s="94"/>
+      <c r="M194" s="94"/>
+      <c r="N194" s="94"/>
+      <c r="O194" s="94"/>
+      <c r="P194" s="94"/>
+      <c r="Q194" s="94"/>
     </row>
     <row r="195" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B195" s="105"/>
-      <c r="C195" s="105"/>
-      <c r="D195" s="105"/>
-      <c r="E195" s="105"/>
-      <c r="F195" s="105"/>
-      <c r="G195" s="105"/>
-      <c r="H195" s="105"/>
-      <c r="I195" s="105"/>
-      <c r="J195" s="105"/>
-      <c r="K195" s="105"/>
-      <c r="L195" s="105"/>
-      <c r="M195" s="105"/>
-      <c r="N195" s="105"/>
-      <c r="O195" s="105"/>
-      <c r="P195" s="105"/>
-      <c r="Q195" s="105"/>
+      <c r="B195" s="94"/>
+      <c r="C195" s="94"/>
+      <c r="D195" s="94"/>
+      <c r="E195" s="94"/>
+      <c r="F195" s="94"/>
+      <c r="G195" s="94"/>
+      <c r="H195" s="94"/>
+      <c r="I195" s="94"/>
+      <c r="J195" s="94"/>
+      <c r="K195" s="94"/>
+      <c r="L195" s="94"/>
+      <c r="M195" s="94"/>
+      <c r="N195" s="94"/>
+      <c r="O195" s="94"/>
+      <c r="P195" s="94"/>
+      <c r="Q195" s="94"/>
     </row>
     <row r="196" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B196" s="105"/>
-      <c r="C196" s="105"/>
-      <c r="D196" s="105"/>
-      <c r="E196" s="105"/>
-      <c r="F196" s="105"/>
-      <c r="G196" s="105"/>
-      <c r="H196" s="105"/>
-      <c r="I196" s="105"/>
-      <c r="J196" s="105"/>
-      <c r="K196" s="105"/>
-      <c r="L196" s="105"/>
-      <c r="M196" s="105"/>
-      <c r="N196" s="105"/>
-      <c r="O196" s="105"/>
-      <c r="P196" s="105"/>
-      <c r="Q196" s="105"/>
+      <c r="B196" s="94"/>
+      <c r="C196" s="94"/>
+      <c r="D196" s="94"/>
+      <c r="E196" s="94"/>
+      <c r="F196" s="94"/>
+      <c r="G196" s="94"/>
+      <c r="H196" s="94"/>
+      <c r="I196" s="94"/>
+      <c r="J196" s="94"/>
+      <c r="K196" s="94"/>
+      <c r="L196" s="94"/>
+      <c r="M196" s="94"/>
+      <c r="N196" s="94"/>
+      <c r="O196" s="94"/>
+      <c r="P196" s="94"/>
+      <c r="Q196" s="94"/>
     </row>
     <row r="197" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B197" s="25" t="s">
+      <c r="B197" s="24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="198" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B198" s="35"/>
-      <c r="C198" s="35" t="s">
+      <c r="B198" s="34"/>
+      <c r="C198" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="D198" s="35" t="s">
+      <c r="D198" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="E198" s="35" t="s">
+      <c r="E198" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="F198" s="35" t="s">
+      <c r="F198" s="34" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="199" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B199" s="35" t="s">
+      <c r="B199" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="C199" s="35">
+      <c r="C199" s="34">
         <f>$D$33</f>
         <v>42</v>
       </c>
-      <c r="D199" s="35">
+      <c r="D199" s="34">
         <f>$D$34</f>
         <v>52</v>
       </c>
-      <c r="E199" s="35">
+      <c r="E199" s="34">
         <f>$D$35</f>
         <v>59</v>
       </c>
-      <c r="F199" s="35">
+      <c r="F199" s="34">
         <f>$D$36</f>
         <v>47</v>
       </c>
     </row>
     <row r="200" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B200" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="C200" s="92">
+      <c r="B200" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="C200" s="83">
         <f>AVERAGE(tshirt_g1)</f>
         <v>33.406666666666673</v>
       </c>
-      <c r="D200" s="92">
+      <c r="D200" s="83">
         <f>AVERAGE(tshirt_g2)</f>
         <v>32.115769230769224</v>
       </c>
-      <c r="E200" s="92">
+      <c r="E200" s="83">
         <f>AVERAGE(tshirt_g3)</f>
         <v>31.28508474576271</v>
       </c>
-      <c r="F200" s="92">
+      <c r="F200" s="83">
         <f>AVERAGE(tshirt_g4)</f>
         <v>31.192340425531903</v>
       </c>
     </row>
     <row r="201" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B201" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="C201" s="92">
+      <c r="B201" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="C201" s="83">
         <f>_xlfn.STDEV.S(tshirt_g1)</f>
         <v>8.4162556608977361</v>
       </c>
-      <c r="D201" s="92">
+      <c r="D201" s="83">
         <f>_xlfn.STDEV.S(tshirt_g2)</f>
         <v>8.0636055639397259</v>
       </c>
-      <c r="E201" s="92">
+      <c r="E201" s="83">
         <f>_xlfn.STDEV.S(tshirt_g3)</f>
         <v>7.3945642600590507</v>
       </c>
-      <c r="F201" s="92">
+      <c r="F201" s="83">
         <f>_xlfn.STDEV.S(tshirt_g4)</f>
         <v>8.4163606750202149</v>
       </c>
     </row>
     <row r="202" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B202" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="C202" s="92">
+      <c r="B202" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C202" s="83">
         <f>C201/SQRT(C199)</f>
         <v>1.2986564426139404</v>
       </c>
-      <c r="D202" s="92">
+      <c r="D202" s="83">
         <f>D201/SQRT(D199)</f>
         <v>1.1182208971500538</v>
       </c>
-      <c r="E202" s="92">
+      <c r="E202" s="83">
         <f>E201/SQRT(E199)</f>
         <v>0.96269026819480952</v>
       </c>
-      <c r="F202" s="92">
+      <c r="F202" s="83">
         <f>F201/SQRT(F199)</f>
         <v>1.2276523783050377</v>
       </c>
     </row>
     <row r="205" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B205" s="103" t="s">
-        <v>252</v>
-      </c>
-      <c r="C205" s="104"/>
+      <c r="B205" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="C205" s="100"/>
     </row>
     <row r="206" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B206" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="C206" s="35">
+      <c r="B206" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C206" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B207" s="35" t="s">
+      <c r="B207" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C207" s="34" t="s">
         <v>247</v>
-      </c>
-      <c r="C207" s="35" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="208" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B208" s="35" t="s">
+      <c r="B208" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C208" s="34" t="s">
         <v>249</v>
-      </c>
-      <c r="C208" s="35" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B209" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="C209" s="92">
+      <c r="B209" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C209" s="83">
         <f>C200-D200</f>
         <v>1.290897435897449</v>
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B210" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C210" s="35">
+      <c r="B210" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C210" s="34">
         <f>SQRT(((C199^2)/C201)+((D201^2)/D199))</f>
         <v>14.520496251207705</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B211" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="C211" s="95" t="str">
+      <c r="B211" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="C211" s="86" t="str">
         <f>IF(C209&lt;C206,"&lt;","&gt;")</f>
         <v>&gt;</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B212" s="100" t="s">
-        <v>230</v>
-      </c>
-      <c r="C212" s="39" t="str">
+      <c r="B212" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="C212" s="38" t="str">
         <f>IF(C211="&lt;", "Left","Right")</f>
         <v>Right</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B213" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C213" s="35"/>
+      <c r="B213" s="85" t="s">
+        <v>255</v>
+      </c>
+      <c r="C213" s="34"/>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B214" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="C214" s="92">
+      <c r="B214" s="91" t="s">
+        <v>254</v>
+      </c>
+      <c r="C214" s="83">
         <f>1-_xlfn.NORM.DIST(C209,C206,C210,TRUE)</f>
         <v>0.4645799988907291</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B215" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="C215" s="92">
+      <c r="B215" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="C215" s="83">
         <v>0.1</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B216" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="C216" s="35">
+      <c r="B216" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="C216" s="34">
         <f>C215/2</f>
         <v>0.05</v>
       </c>
       <c r="D216" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B217" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="C217" s="35" t="b">
+      <c r="B217" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C217" s="34" t="b">
         <f>C214&lt;C216</f>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B218" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="C218" s="102" t="str">
+      <c r="B218" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C218" s="93" t="str">
         <f>IF(C217,"Reject Null","Fail to Reject Null")</f>
         <v>Fail to Reject Null</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C220" s="27" t="s">
-        <v>262</v>
+      <c r="C220" s="26" t="s">
+        <v>261</v>
       </c>
       <c r="D220" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B222" s="103" t="s">
-        <v>260</v>
-      </c>
-      <c r="C222" s="104"/>
+      <c r="B222" s="99" t="s">
+        <v>259</v>
+      </c>
+      <c r="C222" s="100"/>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B223" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="C223" s="35">
+      <c r="B223" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C223" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B224" s="35" t="s">
+      <c r="B224" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C224" s="34" t="s">
         <v>247</v>
-      </c>
-      <c r="C224" s="35" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B225" s="35" t="s">
+      <c r="B225" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C225" s="34" t="s">
         <v>249</v>
-      </c>
-      <c r="C225" s="35" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B226" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="C226" s="92">
+      <c r="B226" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C226" s="83">
         <f>D200-E200</f>
         <v>0.83068448500651471</v>
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B227" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C227" s="35">
+      <c r="B227" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C227" s="34">
         <f>SQRT(((D199^2)/D201)+((E201^2)/E199))</f>
         <v>18.3374108074959</v>
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B228" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="C228" s="95" t="str">
+      <c r="B228" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="C228" s="86" t="str">
         <f>IF(C226&lt;C223,"&lt;","&gt;")</f>
         <v>&gt;</v>
       </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B229" s="100" t="s">
-        <v>230</v>
-      </c>
-      <c r="C229" s="39" t="str">
+      <c r="B229" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="C229" s="38" t="str">
         <f>IF(C228="&lt;", "Left","Right")</f>
         <v>Right</v>
       </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B230" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C230" s="35"/>
+      <c r="B230" s="85" t="s">
+        <v>255</v>
+      </c>
+      <c r="C230" s="34"/>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B231" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="C231" s="92">
+      <c r="B231" s="91" t="s">
+        <v>254</v>
+      </c>
+      <c r="C231" s="83">
         <f>1-_xlfn.NORM.DIST(C226,C223,C227,TRUE)</f>
         <v>0.48193409860068459</v>
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B232" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="C232" s="92">
+      <c r="B232" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="C232" s="83">
         <v>0.1</v>
       </c>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B233" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="C233" s="35">
+      <c r="B233" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="C233" s="34">
         <f>C232/2</f>
         <v>0.05</v>
       </c>
       <c r="D233" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B234" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="C234" s="35" t="b">
+      <c r="B234" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C234" s="34" t="b">
         <f>C231&lt;C233</f>
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B235" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="C235" s="102" t="str">
+      <c r="B235" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C235" s="93" t="str">
         <f>IF(C234,"Reject Null","Fail to Reject Null")</f>
         <v>Fail to Reject Null</v>
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C237" s="27" t="s">
-        <v>263</v>
+      <c r="C237" s="26" t="s">
+        <v>262</v>
       </c>
       <c r="D237" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B239" s="103" t="s">
-        <v>261</v>
-      </c>
-      <c r="C239" s="104"/>
+      <c r="B239" s="99" t="s">
+        <v>260</v>
+      </c>
+      <c r="C239" s="100"/>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B240" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="C240" s="35">
+      <c r="B240" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C240" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B241" s="35" t="s">
+      <c r="B241" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C241" s="34" t="s">
         <v>247</v>
-      </c>
-      <c r="C241" s="35" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B242" s="35" t="s">
+      <c r="B242" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C242" s="34" t="s">
         <v>249</v>
-      </c>
-      <c r="C242" s="35" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B243" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="C243" s="92">
+      <c r="B243" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C243" s="83">
         <f>E200-F200</f>
         <v>9.274432023080692E-2</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B244" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C244" s="35">
+      <c r="B244" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C244" s="34">
         <f>SQRT(((E199^2)/E201)+((F201^2)/F199))</f>
         <v>21.731505481920209</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B245" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="C245" s="95" t="str">
+      <c r="B245" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="C245" s="86" t="str">
         <f>IF(C243&lt;C240,"&lt;","&gt;")</f>
         <v>&gt;</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B246" s="100" t="s">
-        <v>230</v>
-      </c>
-      <c r="C246" s="39" t="str">
+      <c r="B246" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="C246" s="38" t="str">
         <f>IF(C245="&lt;", "Left","Right")</f>
         <v>Right</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B247" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C247" s="35"/>
+      <c r="B247" s="85" t="s">
+        <v>255</v>
+      </c>
+      <c r="C247" s="34"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B248" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="C248" s="92">
+      <c r="B248" s="91" t="s">
+        <v>254</v>
+      </c>
+      <c r="C248" s="83">
         <f>1-_xlfn.NORM.DIST(C243,C240,C244,TRUE)</f>
         <v>0.49829742498409191</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B249" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="C249" s="92">
+      <c r="B249" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="C249" s="83">
         <v>0.1</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B250" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="C250" s="35">
+      <c r="B250" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="C250" s="34">
         <f>C249/2</f>
         <v>0.05</v>
       </c>
       <c r="D250" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B251" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="C251" s="35" t="b">
+      <c r="B251" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C251" s="34" t="b">
         <f>C248&lt;C250</f>
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B252" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="C252" s="102" t="str">
+      <c r="B252" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C252" s="93" t="str">
         <f>IF(C251,"Reject Null","Fail to Reject Null")</f>
         <v>Fail to Reject Null</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C254" s="27" t="s">
+      <c r="C254" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="D254" t="s">
         <v>266</v>
       </c>
-      <c r="D254" t="s">
-        <v>267</v>
-      </c>
     </row>
-    <row r="256" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="22">
+    <row r="256" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="21">
         <v>4</v>
       </c>
-      <c r="B256" s="21" t="s">
-        <v>270</v>
+      <c r="B256" s="20" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="258" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B258" s="24" t="s">
-        <v>271</v>
+      <c r="B258" s="23" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="260" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B260" s="39"/>
-      <c r="C260" s="66" t="s">
+      <c r="B260" s="38"/>
+      <c r="C260" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="D260" s="66" t="s">
+      <c r="D260" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="E260" s="66" t="s">
+      <c r="E260" s="64" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="261" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B261" s="69" t="s">
+      <c r="B261" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="C261" s="40">
+      <c r="C261" s="39">
         <f>AVERAGEIFS(coffee_all,gender,C260)</f>
         <v>10.186202531645566</v>
       </c>
-      <c r="D261" s="40">
+      <c r="D261" s="39">
         <f>AVERAGEIFS(coffee_all,gender,D260)</f>
         <v>9.0923595505617989</v>
       </c>
-      <c r="E261" s="40">
+      <c r="E261" s="39">
         <f>AVERAGEIFS(coffee_all,gender,E260)</f>
         <v>9.8625000000000025</v>
       </c>
     </row>
     <row r="262" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B262" s="69" t="s">
+      <c r="B262" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="C262" s="40">
+      <c r="C262" s="39">
         <f>AVERAGEIFS(tshirt_all,gender,$C$260)</f>
         <v>32.379240506329097</v>
       </c>
-      <c r="D262" s="40">
+      <c r="D262" s="39">
         <f>AVERAGEIFS(tshirt_all,gender,D260)</f>
         <v>32.067303370786533</v>
       </c>
-      <c r="E262" s="40">
+      <c r="E262" s="39">
         <f>AVERAGEIFS(tshirt_all,gender,E260)</f>
         <v>30.406562499999996</v>
       </c>
     </row>
     <row r="263" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B263" s="69" t="s">
+      <c r="B263" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="C263" s="40">
+      <c r="C263" s="39">
         <f>AVERAGEIFS(shampoo_all,gender,C$260)</f>
         <v>3.6116455696202547</v>
       </c>
-      <c r="D263" s="40">
+      <c r="D263" s="39">
         <f>AVERAGEIFS(shampoo_all,gender,D$260)</f>
         <v>3.7184269662921343</v>
       </c>
-      <c r="E263" s="40">
+      <c r="E263" s="39">
         <f>AVERAGEIFS(shampoo_all,gender,E$260)</f>
         <v>3.7253124999999994</v>
       </c>
     </row>
     <row r="264" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B264" s="69" t="s">
+      <c r="B264" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="C264" s="40">
+      <c r="C264" s="39">
         <f>AVERAGEIFS(detergent_all,gender,C$260)</f>
         <v>6.6901265822784808</v>
       </c>
-      <c r="D264" s="40">
+      <c r="D264" s="39">
         <f>AVERAGEIFS(detergent_all,gender,D$260)</f>
         <v>6.8458426966292159</v>
       </c>
-      <c r="E264" s="40">
+      <c r="E264" s="39">
         <f>AVERAGEIFS(detergent_all,gender,E$260)</f>
         <v>6.6825000000000001</v>
       </c>
     </row>
     <row r="265" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B265" s="69" t="s">
+      <c r="B265" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="C265" s="40">
+      <c r="C265" s="39">
         <f>AVERAGEIFS(juice_all,gender,C$260)</f>
         <v>2.8051898734177207</v>
       </c>
-      <c r="D265" s="40">
+      <c r="D265" s="39">
         <f>AVERAGEIFS(juice_all,gender,D$260)</f>
         <v>3.0983146067415732</v>
       </c>
-      <c r="E265" s="40">
+      <c r="E265" s="39">
         <f>AVERAGEIFS(juice_all,gender,E$260)</f>
         <v>3.1121875000000006</v>
       </c>
     </row>
     <row r="266" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B266" s="69" t="s">
+      <c r="B266" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="C266" s="40">
+      <c r="C266" s="39">
         <f>AVERAGEIFS(cleaner_all,gender,C$260)</f>
         <v>3.8406329113924045</v>
       </c>
-      <c r="D266" s="40">
+      <c r="D266" s="39">
         <f>AVERAGEIFS(cleaner_all,gender,D$260)</f>
         <v>4.2171910112359541</v>
       </c>
-      <c r="E266" s="40">
+      <c r="E266" s="39">
         <f>AVERAGEIFS(cleaner_all,gender,E$260)</f>
         <v>3.6481249999999998</v>
       </c>
     </row>
     <row r="268" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B268" s="107" t="s">
-        <v>234</v>
+      <c r="B268" s="96" t="s">
+        <v>233</v>
       </c>
       <c r="C268" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="277" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B277" s="24" t="s">
-        <v>279</v>
+      <c r="B277" s="23" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="278" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B278" s="24"/>
+      <c r="B278" s="23"/>
     </row>
     <row r="279" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C279" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="D279" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="E279" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="F279" s="66" t="s">
+      <c r="C279" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="D279" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E279" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="F279" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="G279" s="66" t="s">
+      <c r="G279" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="H279" s="66" t="s">
+      <c r="H279" s="64" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="280" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B280" s="39"/>
-      <c r="C280" s="23" t="str">
-        <f>VLOOKUP(C279,$C$291:$D$296,2)</f>
+      <c r="B280" s="38"/>
+      <c r="C280" s="22" t="str">
+        <f t="shared" ref="C280:H280" si="2">VLOOKUP(C279,$C$291:$D$296,2)</f>
         <v>Single</v>
       </c>
-      <c r="D280" s="23" t="str">
-        <f>VLOOKUP(D279,$C$291:$D$296,2)</f>
+      <c r="D280" s="22" t="str">
+        <f t="shared" si="2"/>
         <v>Married</v>
       </c>
-      <c r="E280" s="23" t="str">
-        <f>VLOOKUP(E279,$C$291:$D$296,2)</f>
+      <c r="E280" s="22" t="str">
+        <f t="shared" si="2"/>
         <v>Divorced</v>
       </c>
-      <c r="F280" s="23" t="str">
-        <f>VLOOKUP(F279,$C$291:$D$296,2)</f>
+      <c r="F280" s="22" t="str">
+        <f t="shared" si="2"/>
         <v>Widowed</v>
       </c>
-      <c r="G280" s="23" t="str">
-        <f>VLOOKUP(G279,$C$291:$D$296,2)</f>
+      <c r="G280" s="22" t="str">
+        <f t="shared" si="2"/>
         <v>Other</v>
       </c>
-      <c r="H280" s="23" t="str">
-        <f>VLOOKUP(H279,$C$291:$D$296,2)</f>
+      <c r="H280" s="22" t="str">
+        <f t="shared" si="2"/>
         <v>Prefer Not To Say</v>
       </c>
     </row>
     <row r="281" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B281" s="69" t="s">
+      <c r="B281" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="C281" s="40">
+      <c r="C281" s="39">
         <f>AVERAGEIFS(coffee_all,maritalstatus,C$279)</f>
         <v>10.046744186046512</v>
       </c>
-      <c r="D281" s="40">
+      <c r="D281" s="39">
         <f>AVERAGEIFS(coffee_all,maritalstatus,$D$279)</f>
         <v>9.6226470588235244</v>
       </c>
-      <c r="E281" s="40">
+      <c r="E281" s="39">
         <f>AVERAGEIFS(coffee_all,maritalstatus,$E$279)</f>
         <v>9.8518750000000015</v>
       </c>
-      <c r="F281" s="40">
+      <c r="F281" s="39">
         <f>AVERAGEIFS(coffee_all,maritalstatus,$F$279)</f>
         <v>8.6183333333333341</v>
       </c>
-      <c r="G281" s="40">
+      <c r="G281" s="39">
         <f>AVERAGEIFS(coffee_all,maritalstatus,$G$279)</f>
         <v>9.4300000000000015</v>
       </c>
-      <c r="H281" s="40">
+      <c r="H281" s="39">
         <f>AVERAGEIFS(coffee_all,maritalstatus,$H$279)</f>
         <v>9.1286666666666658</v>
       </c>
     </row>
     <row r="282" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B282" s="69" t="s">
+      <c r="B282" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="C282" s="40">
+      <c r="C282" s="39">
         <f>AVERAGEIFS(tshirt_all,maritalstatus,C$279)</f>
         <v>34.310930232558135</v>
       </c>
-      <c r="D282" s="40">
+      <c r="D282" s="39">
         <f>AVERAGEIFS(tshirt_all,maritalstatus,$D$279)</f>
         <v>30.63607843137256</v>
       </c>
-      <c r="E282" s="40">
+      <c r="E282" s="39">
         <f>AVERAGEIFS(tshirt_all,maritalstatus,$E$279)</f>
         <v>30.87125</v>
       </c>
-      <c r="F282" s="40">
+      <c r="F282" s="39">
         <f>AVERAGEIFS(tshirt_all,maritalstatus,$F$279)</f>
         <v>29.959999999999997</v>
       </c>
-      <c r="G282" s="40">
+      <c r="G282" s="39">
         <f>AVERAGEIFS(tshirt_all,maritalstatus,$G$279)</f>
         <v>34.612222222222229</v>
       </c>
-      <c r="H282" s="40">
+      <c r="H282" s="39">
         <f>AVERAGEIFS(tshirt_all,maritalstatus,$H$279)</f>
         <v>32.532666666666664</v>
       </c>
     </row>
     <row r="283" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B283" s="69" t="s">
+      <c r="B283" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="C283" s="40">
+      <c r="C283" s="39">
         <f>AVERAGEIFS(shampoo_all,maritalstatus,C$279)</f>
         <v>3.9699999999999993</v>
       </c>
-      <c r="D283" s="40">
+      <c r="D283" s="39">
         <f>AVERAGEIFS(shampoo_all,maritalstatus,$D$279)</f>
         <v>3.7515686274509794</v>
       </c>
-      <c r="E283" s="40">
+      <c r="E283" s="39">
         <f>AVERAGEIFS(shampoo_all,maritalstatus,$E$279)</f>
         <v>3.6706249999999998</v>
       </c>
-      <c r="F283" s="40">
+      <c r="F283" s="39">
         <f>AVERAGEIFS(shampoo_all,maritalstatus,$F$279)</f>
         <v>2.5016666666666665</v>
       </c>
-      <c r="G283" s="40">
+      <c r="G283" s="39">
         <f>AVERAGEIFS(shampoo_all,maritalstatus,$G$279)</f>
         <v>3.6772222222222219</v>
       </c>
-      <c r="H283" s="40">
+      <c r="H283" s="39">
         <f>AVERAGEIFS(shampoo_all,maritalstatus,$H$279)</f>
         <v>2.8113333333333332</v>
       </c>
     </row>
     <row r="284" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B284" s="69" t="s">
+      <c r="B284" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="C284" s="40">
+      <c r="C284" s="39">
         <f>AVERAGEIFS(detergent_all,maritalstatus,C$279)</f>
         <v>6.9023255813953481</v>
       </c>
-      <c r="D284" s="40">
+      <c r="D284" s="39">
         <f>AVERAGEIFS(detergent_all,maritalstatus,$D$279)</f>
         <v>6.5732352941176488</v>
       </c>
-      <c r="E284" s="40">
+      <c r="E284" s="39">
         <f>AVERAGEIFS(detergent_all,maritalstatus,$E$279)</f>
         <v>6.7674999999999983</v>
       </c>
-      <c r="F284" s="40">
+      <c r="F284" s="39">
         <f>AVERAGEIFS(detergent_all,maritalstatus,$F$279)</f>
         <v>6.5316666666666672</v>
       </c>
-      <c r="G284" s="40">
+      <c r="G284" s="39">
         <f>AVERAGEIFS(detergent_all,maritalstatus,$G$279)</f>
         <v>7.5044444444444451</v>
       </c>
-      <c r="H284" s="40">
+      <c r="H284" s="39">
         <f>AVERAGEIFS(detergent_all,maritalstatus,$H$279)</f>
         <v>6.7880000000000011</v>
       </c>
     </row>
     <row r="285" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B285" s="69" t="s">
+      <c r="B285" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="C285" s="40">
+      <c r="C285" s="39">
         <f>AVERAGEIFS(juice_all,maritalstatus,C$279)</f>
         <v>3.3432558139534883</v>
       </c>
-      <c r="D285" s="40">
+      <c r="D285" s="39">
         <f>AVERAGEIFS(juice_all,maritalstatus,$D$279)</f>
         <v>2.9403921568627447</v>
       </c>
-      <c r="E285" s="40">
+      <c r="E285" s="39">
         <f>AVERAGEIFS(juice_all,maritalstatus,$E$279)</f>
         <v>2.9887499999999996</v>
       </c>
-      <c r="F285" s="40">
+      <c r="F285" s="39">
         <f>AVERAGEIFS(juice_all,maritalstatus,$F$279)</f>
         <v>2.5750000000000002</v>
       </c>
-      <c r="G285" s="40">
+      <c r="G285" s="39">
         <f>AVERAGEIFS(juice_all,maritalstatus,$G$279)</f>
         <v>2.6316666666666668</v>
       </c>
-      <c r="H285" s="40">
+      <c r="H285" s="39">
         <f>AVERAGEIFS(juice_all,maritalstatus,$H$279)</f>
         <v>2.8420000000000001</v>
       </c>
     </row>
     <row r="286" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B286" s="69" t="s">
+      <c r="B286" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="C286" s="40">
+      <c r="C286" s="39">
         <f>AVERAGEIFS(cleaner_all,maritalstatus,C$279)</f>
         <v>4.0511627906976742</v>
       </c>
-      <c r="D286" s="40">
+      <c r="D286" s="39">
         <f>AVERAGEIFS(cleaner_all,maritalstatus,$D$279)</f>
         <v>4.1601960784313734</v>
       </c>
-      <c r="E286" s="40">
+      <c r="E286" s="39">
         <f>AVERAGEIFS(cleaner_all,maritalstatus,$E$279)</f>
         <v>3.6075000000000004</v>
       </c>
-      <c r="F286" s="40">
+      <c r="F286" s="39">
         <f>AVERAGEIFS(cleaner_all,maritalstatus,$F$279)</f>
         <v>3.2833333333333337</v>
       </c>
-      <c r="G286" s="40">
+      <c r="G286" s="39">
         <f>AVERAGEIFS(cleaner_all,maritalstatus,$G$279)</f>
         <v>3.6227777777777783</v>
       </c>
-      <c r="H286" s="40">
+      <c r="H286" s="39">
         <f>AVERAGEIFS(cleaner_all,maritalstatus,$H$279)</f>
         <v>3.6206666666666671</v>
       </c>
     </row>
     <row r="288" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B288" s="107" t="s">
-        <v>234</v>
+      <c r="B288" s="96" t="s">
+        <v>233</v>
       </c>
       <c r="C288" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="290" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C290" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D290" s="109"/>
+      <c r="C290" s="101" t="s">
+        <v>280</v>
+      </c>
+      <c r="D290" s="102"/>
     </row>
     <row r="291" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C291" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D291" s="35" t="s">
-        <v>274</v>
+      <c r="C291" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D291" s="34" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="292" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C292" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D292" s="35" t="s">
-        <v>275</v>
+      <c r="C292" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D292" s="34" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="293" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C293" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D293" s="35" t="s">
-        <v>276</v>
+      <c r="C293" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D293" s="34" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="294" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C294" s="35" t="s">
+      <c r="C294" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D294" s="35" t="s">
-        <v>277</v>
+      <c r="D294" s="34" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="295" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C295" s="35" t="s">
+      <c r="C295" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D295" s="35" t="s">
-        <v>278</v>
+      <c r="D295" s="34" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="296" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C296" s="35" t="s">
+      <c r="C296" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D296" s="35" t="s">
-        <v>280</v>
+      <c r="D296" s="34" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="C290:D290"/>
-    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="M113:N113"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="C113:D113"/>
     <mergeCell ref="E113:F113"/>
     <mergeCell ref="G113:H113"/>
     <mergeCell ref="I113:J113"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="M113:N113"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="C290:D290"/>
+    <mergeCell ref="D122:F122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
